--- a/History/FR/history_23.xlsx
+++ b/History/FR/history_23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/dns0191_office_khu_ac_kr/Documents/연구/Code_PKE_test_explicit_2/History/FR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Reactivity_Analyzer\C++\Euler\History\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D066CA252ABDACC10480219235C1B48B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C668BD-F6A5-494C-9A91-8ADA6AFE3568}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EC521-D00F-4D17-BA90-F0DD8991C7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="4140" windowWidth="10980" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch#4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2985,6 +2989,9 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
@@ -2996,8 +3003,8 @@
       <c r="C2" s="3">
         <v>22.61</v>
       </c>
-      <c r="D2" s="2">
-        <v>2.2516449999999998E-9</v>
+      <c r="D2">
+        <v>5.7955599999999998E-10</v>
       </c>
       <c r="F2" s="2">
         <v>2.2516449999999998E-9</v>
@@ -3005,7 +3012,9 @@
       <c r="G2" s="5">
         <v>12.2</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2">
+        <v>5.7955599999999998E-10</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
@@ -3017,8 +3026,8 @@
       <c r="C3" s="3">
         <v>22.61</v>
       </c>
-      <c r="D3" s="2">
-        <v>1.3106899999999999E-9</v>
+      <c r="D3">
+        <v>5.7919599999999999E-10</v>
       </c>
       <c r="F3" s="2">
         <v>1.3106899999999999E-9</v>
@@ -3026,7 +3035,9 @@
       <c r="G3" s="5">
         <v>12.05</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3">
+        <v>5.7919599999999999E-10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
@@ -3038,8 +3049,8 @@
       <c r="C4" s="3">
         <v>22.61</v>
       </c>
-      <c r="D4" s="2">
-        <v>2.0653800000000002E-9</v>
+      <c r="D4">
+        <v>5.7840799999999995E-10</v>
       </c>
       <c r="F4" s="2">
         <v>2.0653800000000002E-9</v>
@@ -3047,7 +3058,9 @@
       <c r="G4" s="5">
         <v>12.2</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4">
+        <v>5.7840799999999995E-10</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
@@ -3059,8 +3072,8 @@
       <c r="C5" s="3">
         <v>22.61</v>
       </c>
-      <c r="D5" s="2">
-        <v>2.2908680000000002E-9</v>
+      <c r="D5">
+        <v>5.7857200000000002E-10</v>
       </c>
       <c r="F5" s="2">
         <v>2.2908680000000002E-9</v>
@@ -3068,7 +3081,9 @@
       <c r="G5" s="5">
         <v>12.3</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5">
+        <v>5.7857200000000002E-10</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
@@ -3080,8 +3095,8 @@
       <c r="C6" s="3">
         <v>22.61</v>
       </c>
-      <c r="D6" s="2">
-        <v>2.0535250000000001E-9</v>
+      <c r="D6">
+        <v>5.7880000000000001E-10</v>
       </c>
       <c r="F6" s="2">
         <v>2.0535250000000001E-9</v>
@@ -3089,7 +3104,9 @@
       <c r="G6" s="5">
         <v>12.25</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6">
+        <v>5.7880000000000001E-10</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
@@ -3101,8 +3118,8 @@
       <c r="C7" s="3">
         <v>22.61</v>
       </c>
-      <c r="D7" s="2">
-        <v>2.9006809999999999E-9</v>
+      <c r="D7">
+        <v>5.7959700000000002E-10</v>
       </c>
       <c r="F7" s="2">
         <v>2.9006809999999999E-9</v>
@@ -3110,7 +3127,9 @@
       <c r="G7" s="5">
         <v>12.85</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7">
+        <v>5.7959700000000002E-10</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
@@ -3122,8 +3141,8 @@
       <c r="C8" s="3">
         <v>22.61</v>
       </c>
-      <c r="D8" s="2">
-        <v>2.1013580000000001E-9</v>
+      <c r="D8">
+        <v>5.8048399999999998E-10</v>
       </c>
       <c r="F8" s="2">
         <v>2.1013580000000001E-9</v>
@@ -3131,7 +3150,9 @@
       <c r="G8" s="5">
         <v>12.8</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8">
+        <v>5.8048399999999998E-10</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
@@ -3143,8 +3164,8 @@
       <c r="C9" s="3">
         <v>22.61</v>
       </c>
-      <c r="D9" s="2">
-        <v>2.630268E-9</v>
+      <c r="D9">
+        <v>5.8211099999999998E-10</v>
       </c>
       <c r="F9" s="2">
         <v>2.630268E-9</v>
@@ -3152,7 +3173,9 @@
       <c r="G9" s="5">
         <v>12.8</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9">
+        <v>5.8211099999999998E-10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
@@ -3164,8 +3187,8 @@
       <c r="C10" s="3">
         <v>22.61</v>
       </c>
-      <c r="D10" s="2">
-        <v>1.727826E-9</v>
+      <c r="D10">
+        <v>5.8444600000000005E-10</v>
       </c>
       <c r="F10" s="2">
         <v>1.727826E-9</v>
@@ -3173,7 +3196,9 @@
       <c r="G10" s="5">
         <v>12.7</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10">
+        <v>5.8444600000000005E-10</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
@@ -3185,8 +3210,8 @@
       <c r="C11" s="3">
         <v>22.61</v>
       </c>
-      <c r="D11" s="2">
-        <v>2.3713739999999999E-9</v>
+      <c r="D11">
+        <v>5.8613399999999995E-10</v>
       </c>
       <c r="F11" s="2">
         <v>2.3713739999999999E-9</v>
@@ -3194,7 +3219,9 @@
       <c r="G11" s="5">
         <v>13.5</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11">
+        <v>5.8613399999999995E-10</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
@@ -3206,8 +3233,8 @@
       <c r="C12" s="3">
         <v>22.61</v>
       </c>
-      <c r="D12" s="2">
-        <v>1.420692E-9</v>
+      <c r="D12">
+        <v>5.88104E-10</v>
       </c>
       <c r="F12" s="2">
         <v>1.420692E-9</v>
@@ -3215,7 +3242,9 @@
       <c r="G12" s="5">
         <v>12.75</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12">
+        <v>5.88104E-10</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
@@ -3227,8 +3256,8 @@
       <c r="C13" s="3">
         <v>22.61</v>
       </c>
-      <c r="D13" s="2">
-        <v>2.2130950000000002E-9</v>
+      <c r="D13">
+        <v>5.9077599999999997E-10</v>
       </c>
       <c r="F13" s="2">
         <v>2.2130950000000002E-9</v>
@@ -3236,7 +3265,9 @@
       <c r="G13" s="5">
         <v>13.1</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13">
+        <v>5.9077599999999997E-10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
@@ -3248,8 +3279,8 @@
       <c r="C14" s="3">
         <v>22.61</v>
       </c>
-      <c r="D14" s="2">
-        <v>2.6151700000000002E-9</v>
+      <c r="D14">
+        <v>5.9382300000000005E-10</v>
       </c>
       <c r="F14" s="2">
         <v>2.6151700000000002E-9</v>
@@ -3257,7 +3288,9 @@
       <c r="G14" s="5">
         <v>13.05</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14">
+        <v>5.9382300000000005E-10</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -3269,8 +3302,8 @@
       <c r="C15" s="3">
         <v>22.61</v>
       </c>
-      <c r="D15" s="2">
-        <v>2.344229E-9</v>
+      <c r="D15">
+        <v>5.98204E-10</v>
       </c>
       <c r="F15" s="2">
         <v>2.344229E-9</v>
@@ -3278,7 +3311,9 @@
       <c r="G15" s="5">
         <v>13.45</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15">
+        <v>5.98204E-10</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
@@ -3290,8 +3325,8 @@
       <c r="C16" s="3">
         <v>22.61</v>
       </c>
-      <c r="D16" s="2">
-        <v>2.985383E-9</v>
+      <c r="D16">
+        <v>6.01929E-10</v>
       </c>
       <c r="F16" s="2">
         <v>2.985383E-9</v>
@@ -3299,7 +3334,9 @@
       <c r="G16" s="5">
         <v>14.15</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16">
+        <v>6.01929E-10</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
@@ -3311,8 +3348,8 @@
       <c r="C17" s="3">
         <v>22.61</v>
       </c>
-      <c r="D17" s="2">
-        <v>2.3307729999999999E-9</v>
+      <c r="D17">
+        <v>6.0592899999999999E-10</v>
       </c>
       <c r="F17" s="2">
         <v>2.3307729999999999E-9</v>
@@ -3320,7 +3357,9 @@
       <c r="G17" s="5">
         <v>14.25</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17">
+        <v>6.0592899999999999E-10</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
@@ -3332,8 +3371,8 @@
       <c r="C18" s="3">
         <v>22.61</v>
       </c>
-      <c r="D18" s="2">
-        <v>2.707073E-9</v>
+      <c r="D18">
+        <v>6.0903899999999999E-10</v>
       </c>
       <c r="F18" s="2">
         <v>2.707073E-9</v>
@@ -3341,7 +3380,9 @@
       <c r="G18" s="5">
         <v>15.55</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18">
+        <v>6.0903899999999999E-10</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
@@ -3353,8 +3394,8 @@
       <c r="C19" s="3">
         <v>22.61</v>
       </c>
-      <c r="D19" s="2">
-        <v>2.1877620000000001E-9</v>
+      <c r="D19">
+        <v>6.1140500000000002E-10</v>
       </c>
       <c r="F19" s="2">
         <v>2.1877620000000001E-9</v>
@@ -3362,7 +3403,9 @@
       <c r="G19" s="5">
         <v>14.8</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19">
+        <v>6.1140500000000002E-10</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
@@ -3374,8 +3417,8 @@
       <c r="C20" s="3">
         <v>22.61</v>
       </c>
-      <c r="D20" s="2">
-        <v>2.8840319999999998E-9</v>
+      <c r="D20">
+        <v>6.15235E-10</v>
       </c>
       <c r="F20" s="2">
         <v>2.8840319999999998E-9</v>
@@ -3383,7 +3426,9 @@
       <c r="G20" s="5">
         <v>14.85</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20">
+        <v>6.15235E-10</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
@@ -3395,8 +3440,8 @@
       <c r="C21" s="3">
         <v>22.61</v>
       </c>
-      <c r="D21" s="2">
-        <v>1.7179080000000001E-9</v>
+      <c r="D21">
+        <v>6.1958499999999999E-10</v>
       </c>
       <c r="F21" s="2">
         <v>1.7179080000000001E-9</v>
@@ -3404,7 +3449,9 @@
       <c r="G21" s="5">
         <v>14.35</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21">
+        <v>6.1958499999999999E-10</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
@@ -3416,8 +3463,8 @@
       <c r="C22" s="3">
         <v>22.61</v>
       </c>
-      <c r="D22" s="2">
-        <v>2.93427E-9</v>
+      <c r="D22">
+        <v>6.2456099999999997E-10</v>
       </c>
       <c r="F22" s="2">
         <v>2.93427E-9</v>
@@ -3425,7 +3472,9 @@
       <c r="G22" s="5">
         <v>19.95</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22">
+        <v>6.2456099999999997E-10</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
@@ -3437,8 +3486,8 @@
       <c r="C23" s="3">
         <v>22.61</v>
       </c>
-      <c r="D23" s="2">
-        <v>1.5667509999999999E-9</v>
+      <c r="D23">
+        <v>6.2961900000000004E-10</v>
       </c>
       <c r="F23" s="2">
         <v>1.5667509999999999E-9</v>
@@ -3446,7 +3495,9 @@
       <c r="G23" s="5">
         <v>14.95</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23">
+        <v>6.2961900000000004E-10</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
@@ -3458,8 +3509,8 @@
       <c r="C24" s="3">
         <v>22.61</v>
       </c>
-      <c r="D24" s="2">
-        <v>2.834654E-9</v>
+      <c r="D24">
+        <v>6.3407800000000003E-10</v>
       </c>
       <c r="F24" s="2">
         <v>2.834654E-9</v>
@@ -3467,7 +3518,9 @@
       <c r="G24" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24">
+        <v>6.3407800000000003E-10</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
@@ -3479,8 +3532,8 @@
       <c r="C25" s="3">
         <v>22.61</v>
       </c>
-      <c r="D25" s="2">
-        <v>1.9164610000000001E-9</v>
+      <c r="D25">
+        <v>6.3813199999999996E-10</v>
       </c>
       <c r="F25" s="2">
         <v>1.9164610000000001E-9</v>
@@ -3488,7 +3541,9 @@
       <c r="G25" s="5">
         <v>15.9</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25">
+        <v>6.3813199999999996E-10</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
@@ -3500,8 +3555,8 @@
       <c r="C26" s="3">
         <v>22.61</v>
       </c>
-      <c r="D26" s="2">
-        <v>2.630268E-9</v>
+      <c r="D26">
+        <v>6.4437000000000002E-10</v>
       </c>
       <c r="F26" s="2">
         <v>2.630268E-9</v>
@@ -3509,7 +3564,9 @@
       <c r="G26" s="5">
         <v>18.899999999999999</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26">
+        <v>6.4437000000000002E-10</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
@@ -3521,8 +3578,8 @@
       <c r="C27" s="3">
         <v>22.61</v>
       </c>
-      <c r="D27" s="2">
-        <v>1.7478330000000001E-9</v>
+      <c r="D27">
+        <v>6.5173600000000003E-10</v>
       </c>
       <c r="F27" s="2">
         <v>1.7478330000000001E-9</v>
@@ -3530,7 +3587,9 @@
       <c r="G27" s="5">
         <v>16.649999999999999</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27">
+        <v>6.5173600000000003E-10</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
@@ -3542,8 +3601,8 @@
       <c r="C28" s="3">
         <v>22.61</v>
       </c>
-      <c r="D28" s="2">
-        <v>2.754229E-9</v>
+      <c r="D28">
+        <v>6.5857200000000005E-10</v>
       </c>
       <c r="F28" s="2">
         <v>2.754229E-9</v>
@@ -3551,7 +3610,9 @@
       <c r="G28" s="5">
         <v>21.7</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28">
+        <v>6.5857200000000005E-10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
@@ -3563,8 +3624,8 @@
       <c r="C29" s="3">
         <v>22.61</v>
       </c>
-      <c r="D29" s="2">
-        <v>3.651741E-9</v>
+      <c r="D29">
+        <v>6.6689700000000002E-10</v>
       </c>
       <c r="F29" s="2">
         <v>3.651741E-9</v>
@@ -3572,7 +3633,9 @@
       <c r="G29" s="5">
         <v>18</v>
       </c>
-      <c r="H29" s="5"/>
+      <c r="H29">
+        <v>6.6689700000000002E-10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
@@ -3584,8 +3647,8 @@
       <c r="C30" s="3">
         <v>22.61</v>
       </c>
-      <c r="D30" s="2">
-        <v>2.9174269999999998E-9</v>
+      <c r="D30">
+        <v>6.7583000000000003E-10</v>
       </c>
       <c r="F30" s="2">
         <v>2.9174269999999998E-9</v>
@@ -3593,7 +3656,9 @@
       <c r="G30" s="5">
         <v>22.65</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30">
+        <v>6.7583000000000003E-10</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
@@ -3605,8 +3670,8 @@
       <c r="C31" s="3">
         <v>22.61</v>
       </c>
-      <c r="D31" s="2">
-        <v>3.3304279999999998E-9</v>
+      <c r="D31">
+        <v>6.8429000000000002E-10</v>
       </c>
       <c r="F31" s="2">
         <v>3.3304279999999998E-9</v>
@@ -3614,7 +3679,9 @@
       <c r="G31" s="5">
         <v>21</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31">
+        <v>6.8429000000000002E-10</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -3626,8 +3693,8 @@
       <c r="C32" s="3">
         <v>22.61</v>
       </c>
-      <c r="D32" s="2">
-        <v>3.0199519999999999E-9</v>
+      <c r="D32">
+        <v>6.9571800000000004E-10</v>
       </c>
       <c r="F32" s="2">
         <v>3.0199519999999999E-9</v>
@@ -3635,7 +3702,9 @@
       <c r="G32" s="5">
         <v>23.9</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32">
+        <v>6.9571800000000004E-10</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
@@ -3647,8 +3716,8 @@
       <c r="C33" s="3">
         <v>22.61</v>
       </c>
-      <c r="D33" s="2">
-        <v>3.3113110000000001E-9</v>
+      <c r="D33">
+        <v>7.0852800000000002E-10</v>
       </c>
       <c r="F33" s="2">
         <v>3.3113110000000001E-9</v>
@@ -3656,7 +3725,9 @@
       <c r="G33" s="5">
         <v>21.55</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33">
+        <v>7.0852800000000002E-10</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
@@ -3668,8 +3739,8 @@
       <c r="C34" s="3">
         <v>22.61</v>
       </c>
-      <c r="D34" s="2">
-        <v>2.3040930000000002E-9</v>
+      <c r="D34">
+        <v>7.24087E-10</v>
       </c>
       <c r="F34" s="2">
         <v>2.3040930000000002E-9</v>
@@ -3677,7 +3748,9 @@
       <c r="G34" s="5">
         <v>21.2</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34">
+        <v>7.24087E-10</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
@@ -3689,8 +3762,8 @@
       <c r="C35" s="3">
         <v>22.61</v>
       </c>
-      <c r="D35" s="2">
-        <v>3.60994E-9</v>
+      <c r="D35">
+        <v>7.4136000000000001E-10</v>
       </c>
       <c r="F35" s="2">
         <v>3.60994E-9</v>
@@ -3698,7 +3771,9 @@
       <c r="G35" s="5">
         <v>26.45</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35">
+        <v>7.4136000000000001E-10</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
@@ -3710,8 +3785,8 @@
       <c r="C36" s="3">
         <v>22.61</v>
       </c>
-      <c r="D36" s="2">
-        <v>2.5852350000000001E-9</v>
+      <c r="D36">
+        <v>7.5441899999999996E-10</v>
       </c>
       <c r="F36" s="2">
         <v>2.5852350000000001E-9</v>
@@ -3719,7 +3794,9 @@
       <c r="G36" s="5">
         <v>22.7</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36">
+        <v>7.5441899999999996E-10</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
@@ -3731,8 +3808,8 @@
       <c r="C37" s="3">
         <v>22.61</v>
       </c>
-      <c r="D37" s="2">
-        <v>3.3304279999999998E-9</v>
+      <c r="D37">
+        <v>7.7196899999999996E-10</v>
       </c>
       <c r="F37" s="2">
         <v>3.3304279999999998E-9</v>
@@ -3740,7 +3817,9 @@
       <c r="G37" s="5">
         <v>27.65</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37">
+        <v>7.7196899999999996E-10</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
@@ -3752,8 +3831,8 @@
       <c r="C38" s="3">
         <v>22.61</v>
       </c>
-      <c r="D38" s="2">
-        <v>4.3151909999999998E-9</v>
+      <c r="D38">
+        <v>7.9175099999999999E-10</v>
       </c>
       <c r="F38" s="2">
         <v>4.3151909999999998E-9</v>
@@ -3761,7 +3840,9 @@
       <c r="G38" s="5">
         <v>25.25</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38">
+        <v>7.9175099999999999E-10</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
@@ -3773,8 +3854,8 @@
       <c r="C39" s="3">
         <v>22.61</v>
       </c>
-      <c r="D39" s="2">
-        <v>3.507519E-9</v>
+      <c r="D39">
+        <v>8.1279099999999995E-10</v>
       </c>
       <c r="F39" s="2">
         <v>3.507519E-9</v>
@@ -3782,7 +3863,9 @@
       <c r="G39" s="5">
         <v>27.5</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39">
+        <v>8.1279099999999995E-10</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
@@ -3794,8 +3877,8 @@
       <c r="C40" s="3">
         <v>22.61</v>
       </c>
-      <c r="D40" s="2">
-        <v>4.1927600000000003E-9</v>
+      <c r="D40">
+        <v>8.3468700000000001E-10</v>
       </c>
       <c r="F40" s="2">
         <v>4.1927600000000003E-9</v>
@@ -3803,7 +3886,9 @@
       <c r="G40" s="5">
         <v>29.9</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40">
+        <v>8.3468700000000001E-10</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
@@ -3815,8 +3900,8 @@
       <c r="C41" s="3">
         <v>22.61</v>
       </c>
-      <c r="D41" s="2">
-        <v>3.6307810000000001E-9</v>
+      <c r="D41">
+        <v>8.5807699999999997E-10</v>
       </c>
       <c r="F41" s="2">
         <v>3.6307810000000001E-9</v>
@@ -3824,7 +3909,9 @@
       <c r="G41" s="5">
         <v>30.65</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41">
+        <v>8.5807699999999997E-10</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
@@ -3836,8 +3923,8 @@
       <c r="C42" s="3">
         <v>22.61</v>
       </c>
-      <c r="D42" s="2">
-        <v>4.926063E-9</v>
+      <c r="D42">
+        <v>8.7686699999999997E-10</v>
       </c>
       <c r="F42" s="2">
         <v>4.926063E-9</v>
@@ -3845,7 +3932,9 @@
       <c r="G42" s="5">
         <v>31.4</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42">
+        <v>8.7686699999999997E-10</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
@@ -3857,8 +3946,8 @@
       <c r="C43" s="3">
         <v>22.61</v>
       </c>
-      <c r="D43" s="2">
-        <v>3.1260790000000001E-9</v>
+      <c r="D43">
+        <v>9.0386300000000005E-10</v>
       </c>
       <c r="F43" s="2">
         <v>3.1260790000000001E-9</v>
@@ -3866,7 +3955,9 @@
       <c r="G43" s="5">
         <v>31.2</v>
       </c>
-      <c r="H43" s="5"/>
+      <c r="H43">
+        <v>9.0386300000000005E-10</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
@@ -3878,8 +3969,8 @@
       <c r="C44" s="3">
         <v>22.61</v>
       </c>
-      <c r="D44" s="2">
-        <v>4.6238100000000004E-9</v>
+      <c r="D44">
+        <v>9.3358499999999994E-10</v>
       </c>
       <c r="F44" s="2">
         <v>4.6238100000000004E-9</v>
@@ -3887,7 +3978,9 @@
       <c r="G44" s="5">
         <v>36.950000000000003</v>
       </c>
-      <c r="H44" s="5"/>
+      <c r="H44">
+        <v>9.3358499999999994E-10</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
@@ -3899,8 +3992,8 @@
       <c r="C45" s="3">
         <v>22.61</v>
       </c>
-      <c r="D45" s="2">
-        <v>3.7153519999999998E-9</v>
+      <c r="D45">
+        <v>9.6310300000000004E-10</v>
       </c>
       <c r="F45" s="2">
         <v>3.7153519999999998E-9</v>
@@ -3908,7 +4001,9 @@
       <c r="G45" s="5">
         <v>34.85</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="H45">
+        <v>9.6310300000000004E-10</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
@@ -3920,8 +4015,8 @@
       <c r="C46" s="3">
         <v>22.61</v>
       </c>
-      <c r="D46" s="2">
-        <v>4.7315130000000001E-9</v>
+      <c r="D46">
+        <v>9.9565199999999999E-10</v>
       </c>
       <c r="F46" s="2">
         <v>4.7315130000000001E-9</v>
@@ -3929,7 +4024,9 @@
       <c r="G46" s="5">
         <v>39.049999999999997</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46">
+        <v>9.9565199999999999E-10</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
@@ -3941,8 +4038,8 @@
       <c r="C47" s="3">
         <v>22.61</v>
       </c>
-      <c r="D47" s="2">
-        <v>3.9129109999999998E-9</v>
+      <c r="D47">
+        <v>1.031997E-9</v>
       </c>
       <c r="F47" s="2">
         <v>3.9129109999999998E-9</v>
@@ -3950,7 +4047,9 @@
       <c r="G47" s="5">
         <v>39.35</v>
       </c>
-      <c r="H47" s="5"/>
+      <c r="H47">
+        <v>1.031997E-9</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
@@ -3962,8 +4061,8 @@
       <c r="C48" s="3">
         <v>22.61</v>
       </c>
-      <c r="D48" s="2">
-        <v>4.9545019999999996E-9</v>
+      <c r="D48">
+        <v>1.0601539999999999E-9</v>
       </c>
       <c r="F48" s="2">
         <v>4.9545019999999996E-9</v>
@@ -3971,7 +4070,9 @@
       <c r="G48" s="5">
         <v>41.7</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48">
+        <v>1.0601539999999999E-9</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
@@ -3983,8 +4084,8 @@
       <c r="C49" s="3">
         <v>22.61</v>
       </c>
-      <c r="D49" s="2">
-        <v>4.1209749999999996E-9</v>
+      <c r="D49">
+        <v>1.098564E-9</v>
       </c>
       <c r="F49" s="2">
         <v>4.1209749999999996E-9</v>
@@ -3992,7 +4093,9 @@
       <c r="G49" s="5">
         <v>42.45</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49">
+        <v>1.098564E-9</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
@@ -4004,8 +4107,8 @@
       <c r="C50" s="3">
         <v>22.61</v>
       </c>
-      <c r="D50" s="2">
-        <v>5.5271340000000002E-9</v>
+      <c r="D50">
+        <v>1.1438810000000001E-9</v>
       </c>
       <c r="F50" s="2">
         <v>5.5271340000000002E-9</v>
@@ -4013,7 +4116,9 @@
       <c r="G50" s="5">
         <v>48.449999999999996</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50">
+        <v>1.1438810000000001E-9</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
@@ -4025,8 +4130,8 @@
       <c r="C51" s="3">
         <v>22.61</v>
       </c>
-      <c r="D51" s="2">
-        <v>7.1614339999999998E-9</v>
+      <c r="D51">
+        <v>1.191424E-9</v>
       </c>
       <c r="F51" s="2">
         <v>7.1614339999999998E-9</v>
@@ -4034,7 +4139,9 @@
       <c r="G51" s="5">
         <v>49.199999999999996</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51">
+        <v>1.191424E-9</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
@@ -4046,8 +4153,8 @@
       <c r="C52" s="3">
         <v>22.61</v>
       </c>
-      <c r="D52" s="2">
-        <v>5.956621E-9</v>
+      <c r="D52">
+        <v>1.242624E-9</v>
       </c>
       <c r="F52" s="2">
         <v>5.956621E-9</v>
@@ -4055,7 +4162,9 @@
       <c r="G52" s="5">
         <v>52.650000000000006</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52">
+        <v>1.242624E-9</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
@@ -4067,8 +4176,8 @@
       <c r="C53" s="3">
         <v>22.61</v>
       </c>
-      <c r="D53" s="2">
-        <v>8.0352609999999993E-9</v>
+      <c r="D53">
+        <v>1.284797E-9</v>
       </c>
       <c r="F53" s="2">
         <v>8.0352609999999993E-9</v>
@@ -4076,7 +4185,9 @@
       <c r="G53" s="5">
         <v>56.400000000000006</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53">
+        <v>1.284797E-9</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
@@ -4088,8 +4199,8 @@
       <c r="C54" s="3">
         <v>22.61</v>
       </c>
-      <c r="D54" s="2">
-        <v>6.4565419999999999E-9</v>
+      <c r="D54">
+        <v>1.3423989999999999E-9</v>
       </c>
       <c r="F54" s="2">
         <v>6.4565419999999999E-9</v>
@@ -4097,7 +4208,9 @@
       <c r="G54" s="5">
         <v>57.599999999999994</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54">
+        <v>1.3423989999999999E-9</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
@@ -4109,8 +4222,8 @@
       <c r="C55" s="3">
         <v>22.61</v>
       </c>
-      <c r="D55" s="2">
-        <v>7.4989419999999996E-9</v>
+      <c r="D55">
+        <v>1.4061290000000001E-9</v>
       </c>
       <c r="F55" s="2">
         <v>7.4989419999999996E-9</v>
@@ -4118,7 +4231,9 @@
       <c r="G55" s="5">
         <v>61.650000000000006</v>
       </c>
-      <c r="H55" s="6"/>
+      <c r="H55">
+        <v>1.4061290000000001E-9</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
@@ -4130,8 +4245,8 @@
       <c r="C56" s="3">
         <v>22.61</v>
       </c>
-      <c r="D56" s="2">
-        <v>7.2027779999999996E-9</v>
+      <c r="D56">
+        <v>1.4765820000000001E-9</v>
       </c>
       <c r="F56" s="2">
         <v>7.2027779999999996E-9</v>
@@ -4139,7 +4254,9 @@
       <c r="G56" s="5">
         <v>64.5</v>
       </c>
-      <c r="H56" s="6"/>
+      <c r="H56">
+        <v>1.4765820000000001E-9</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
@@ -4151,8 +4268,8 @@
       <c r="C57" s="3">
         <v>22.61</v>
       </c>
-      <c r="D57" s="2">
-        <v>8.7096359999999997E-9</v>
+      <c r="D57">
+        <v>1.4951699999999999E-9</v>
       </c>
       <c r="F57" s="2">
         <v>8.7096359999999997E-9</v>
@@ -4160,7 +4277,9 @@
       <c r="G57" s="5">
         <v>70.800000000000011</v>
       </c>
-      <c r="H57" s="6"/>
+      <c r="H57">
+        <v>1.4951699999999999E-9</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
@@ -4172,8 +4291,8 @@
       <c r="C58" s="3">
         <v>22.61</v>
       </c>
-      <c r="D58" s="2">
-        <v>8.0352609999999993E-9</v>
+      <c r="D58">
+        <v>2.1742119999999999E-9</v>
       </c>
       <c r="F58" s="2">
         <v>8.0352609999999993E-9</v>
@@ -4181,7 +4300,9 @@
       <c r="G58" s="5">
         <v>77.699999999999989</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58">
+        <v>2.1742119999999999E-9</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
@@ -4193,8 +4314,8 @@
       <c r="C59" s="3">
         <v>22.61</v>
       </c>
-      <c r="D59" s="2">
-        <v>9.0677600000000001E-9</v>
+      <c r="D59">
+        <v>2.1801060000000002E-9</v>
       </c>
       <c r="F59" s="2">
         <v>9.0677600000000001E-9</v>
@@ -4202,7 +4323,9 @@
       <c r="G59" s="5">
         <v>87.449999999999989</v>
       </c>
-      <c r="H59" s="6"/>
+      <c r="H59">
+        <v>2.1801060000000002E-9</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
@@ -4214,8 +4337,8 @@
       <c r="C60" s="3">
         <v>22.61</v>
       </c>
-      <c r="D60" s="2">
-        <v>9.7162800000000007E-9</v>
+      <c r="D60">
+        <v>2.1974179999999998E-9</v>
       </c>
       <c r="F60" s="2">
         <v>9.7162800000000007E-9</v>
@@ -4223,7 +4346,9 @@
       <c r="G60" s="5">
         <v>87.300000000000011</v>
       </c>
-      <c r="H60" s="6"/>
+      <c r="H60">
+        <v>2.1974179999999998E-9</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
@@ -4235,8 +4360,8 @@
       <c r="C61" s="3">
         <v>22.61</v>
       </c>
-      <c r="D61" s="2">
-        <v>1.0653689000000001E-8</v>
+      <c r="D61">
+        <v>2.227692E-9</v>
       </c>
       <c r="F61" s="2">
         <v>1.0653689000000001E-8</v>
@@ -4244,7 +4369,9 @@
       <c r="G61" s="5">
         <v>100.05000000000001</v>
       </c>
-      <c r="H61" s="6"/>
+      <c r="H61">
+        <v>2.227692E-9</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
@@ -4256,8 +4383,8 @@
       <c r="C62" s="3">
         <v>22.61</v>
       </c>
-      <c r="D62" s="2">
-        <v>9.6605090000000003E-9</v>
+      <c r="D62">
+        <v>2.2745150000000002E-9</v>
       </c>
       <c r="F62" s="2">
         <v>9.6605090000000003E-9</v>
@@ -4265,7 +4392,9 @@
       <c r="G62" s="5">
         <v>99.149999999999991</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="H62">
+        <v>2.2745150000000002E-9</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
@@ -4277,8 +4406,8 @@
       <c r="C63" s="3">
         <v>22.61</v>
       </c>
-      <c r="D63" s="2">
-        <v>1.2445146E-8</v>
+      <c r="D63">
+        <v>2.3409329999999998E-9</v>
       </c>
       <c r="F63" s="2">
         <v>1.2445146E-8</v>
@@ -4286,7 +4415,9 @@
       <c r="G63" s="5">
         <v>118.05000000000001</v>
       </c>
-      <c r="H63" s="6"/>
+      <c r="H63">
+        <v>2.3409329999999998E-9</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
@@ -4298,8 +4429,8 @@
       <c r="C64" s="3">
         <v>22.61</v>
       </c>
-      <c r="D64" s="2">
-        <v>1.5135611999999999E-8</v>
+      <c r="D64">
+        <v>2.429774E-9</v>
       </c>
       <c r="F64" s="2">
         <v>1.5135611999999999E-8</v>
@@ -4307,7 +4438,9 @@
       <c r="G64" s="5">
         <v>115.64999999999999</v>
       </c>
-      <c r="H64" s="6"/>
+      <c r="H64">
+        <v>2.429774E-9</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
@@ -4319,8 +4452,8 @@
       <c r="C65" s="3">
         <v>22.61</v>
       </c>
-      <c r="D65" s="2">
-        <v>1.372461E-8</v>
+      <c r="D65">
+        <v>2.5145200000000001E-9</v>
       </c>
       <c r="F65" s="2">
         <v>1.372461E-8</v>
@@ -4328,7 +4461,9 @@
       <c r="G65" s="5">
         <v>127.35000000000001</v>
       </c>
-      <c r="H65" s="6"/>
+      <c r="H65">
+        <v>2.5145200000000001E-9</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
@@ -4340,8 +4475,8 @@
       <c r="C66" s="3">
         <v>22.61</v>
       </c>
-      <c r="D66" s="2">
-        <v>1.4706184E-8</v>
+      <c r="D66">
+        <v>2.6473620000000001E-9</v>
       </c>
       <c r="F66" s="2">
         <v>1.4706184E-8</v>
@@ -4349,7 +4484,9 @@
       <c r="G66" s="5">
         <v>135.75</v>
       </c>
-      <c r="H66" s="6"/>
+      <c r="H66">
+        <v>2.6473620000000001E-9</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
@@ -4361,8 +4498,8 @@
       <c r="C67" s="3">
         <v>22.61</v>
       </c>
-      <c r="D67" s="2">
-        <v>1.4876473999999999E-8</v>
+      <c r="D67">
+        <v>2.808905E-9</v>
       </c>
       <c r="F67" s="2">
         <v>1.4876473999999999E-8</v>
@@ -4370,7 +4507,9 @@
       <c r="G67" s="5">
         <v>148.64999999999998</v>
       </c>
-      <c r="H67" s="6"/>
+      <c r="H67">
+        <v>2.808905E-9</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
@@ -4382,8 +4521,8 @@
       <c r="C68" s="3">
         <v>22.61</v>
       </c>
-      <c r="D68" s="2">
-        <v>1.6788040000000001E-8</v>
+      <c r="D68">
+        <v>2.9948889999999999E-9</v>
       </c>
       <c r="F68" s="2">
         <v>1.6788040000000001E-8</v>
@@ -4391,7 +4530,9 @@
       <c r="G68" s="5">
         <v>157.19999999999999</v>
       </c>
-      <c r="H68" s="6"/>
+      <c r="H68">
+        <v>2.9948889999999999E-9</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
@@ -4403,8 +4544,8 @@
       <c r="C69" s="3">
         <v>22.61</v>
       </c>
-      <c r="D69" s="2">
-        <v>1.7179084000000001E-8</v>
+      <c r="D69">
+        <v>3.2045660000000002E-9</v>
       </c>
       <c r="F69" s="2">
         <v>1.7179084000000001E-8</v>
@@ -4412,7 +4553,9 @@
       <c r="G69" s="5">
         <v>166.2</v>
       </c>
-      <c r="H69" s="6"/>
+      <c r="H69">
+        <v>3.2045660000000002E-9</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
@@ -4424,8 +4567,8 @@
       <c r="C70" s="3">
         <v>22.61</v>
       </c>
-      <c r="D70" s="2">
-        <v>1.8836490999999998E-8</v>
+      <c r="D70">
+        <v>3.378673E-9</v>
       </c>
       <c r="F70" s="2">
         <v>1.8836490999999998E-8</v>
@@ -4433,7 +4576,9 @@
       <c r="G70" s="5">
         <v>180.60000000000002</v>
       </c>
-      <c r="H70" s="6"/>
+      <c r="H70">
+        <v>3.378673E-9</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
@@ -4445,8 +4590,8 @@
       <c r="C71" s="3">
         <v>22.61</v>
       </c>
-      <c r="D71" s="2">
-        <v>1.9838097E-8</v>
+      <c r="D71">
+        <v>3.6222180000000001E-9</v>
       </c>
       <c r="F71" s="2">
         <v>1.9838097E-8</v>
@@ -4454,7 +4599,9 @@
       <c r="G71" s="5">
         <v>190.95</v>
       </c>
-      <c r="H71" s="6"/>
+      <c r="H71">
+        <v>3.6222180000000001E-9</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
@@ -4466,8 +4613,8 @@
       <c r="C72" s="3">
         <v>22.61</v>
       </c>
-      <c r="D72" s="2">
-        <v>2.1752040000000001E-8</v>
+      <c r="D72">
+        <v>3.8882879999999998E-9</v>
       </c>
       <c r="F72" s="2">
         <v>2.1752040000000001E-8</v>
@@ -4475,7 +4622,9 @@
       <c r="G72" s="5">
         <v>206.39999999999998</v>
       </c>
-      <c r="H72" s="6"/>
+      <c r="H72">
+        <v>3.8882879999999998E-9</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
@@ -4487,8 +4636,8 @@
       <c r="C73" s="3">
         <v>22.61</v>
       </c>
-      <c r="D73" s="2">
-        <v>2.4547089E-8</v>
+      <c r="D73">
+        <v>4.174784E-9</v>
       </c>
       <c r="F73" s="2">
         <v>2.4547089E-8</v>
@@ -4496,7 +4645,9 @@
       <c r="G73" s="5">
         <v>218.10000000000002</v>
       </c>
-      <c r="H73" s="6"/>
+      <c r="H73">
+        <v>4.174784E-9</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
@@ -4508,8 +4659,8 @@
       <c r="C74" s="3">
         <v>22.61</v>
       </c>
-      <c r="D74" s="2">
-        <v>2.4126814999999999E-8</v>
+      <c r="D74">
+        <v>4.4699039999999997E-9</v>
       </c>
       <c r="F74" s="2">
         <v>2.4126814999999999E-8</v>
@@ -4517,7 +4668,9 @@
       <c r="G74" s="5">
         <v>229.5</v>
       </c>
-      <c r="H74" s="6"/>
+      <c r="H74">
+        <v>4.4699039999999997E-9</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
@@ -4529,8 +4682,8 @@
       <c r="C75" s="3">
         <v>22.61</v>
       </c>
-      <c r="D75" s="2">
-        <v>2.9006811999999999E-8</v>
+      <c r="D75">
+        <v>4.780341E-9</v>
       </c>
       <c r="F75" s="2">
         <v>2.9006811999999999E-8</v>
@@ -4538,7 +4691,9 @@
       <c r="G75" s="5">
         <v>219.59999999999997</v>
       </c>
-      <c r="H75" s="6"/>
+      <c r="H75">
+        <v>4.780341E-9</v>
+      </c>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
@@ -4551,8 +4706,8 @@
       <c r="C76" s="3">
         <v>22.61</v>
       </c>
-      <c r="D76" s="2">
-        <v>2.7384195999999999E-8</v>
+      <c r="D76">
+        <v>5.027638E-9</v>
       </c>
       <c r="F76" s="2">
         <v>2.7384195999999999E-8</v>
@@ -4560,7 +4715,9 @@
       <c r="G76" s="5">
         <v>230.40000000000003</v>
       </c>
-      <c r="H76" s="6"/>
+      <c r="H76">
+        <v>5.027638E-9</v>
+      </c>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
@@ -4573,8 +4730,8 @@
       <c r="C77" s="3">
         <v>22.61</v>
       </c>
-      <c r="D77" s="2">
-        <v>2.9342694999999999E-8</v>
+      <c r="D77">
+        <v>5.3696069999999999E-9</v>
       </c>
       <c r="F77" s="2">
         <v>2.9342694999999999E-8</v>
@@ -4582,7 +4739,9 @@
       <c r="G77" s="5">
         <v>253.79999999999998</v>
       </c>
-      <c r="H77" s="6"/>
+      <c r="H77">
+        <v>5.3696069999999999E-9</v>
+      </c>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
@@ -4595,8 +4754,8 @@
       <c r="C78" s="3">
         <v>22.61</v>
       </c>
-      <c r="D78" s="2">
-        <v>3.0902954000000001E-8</v>
+      <c r="D78">
+        <v>5.731578E-9</v>
       </c>
       <c r="F78" s="2">
         <v>3.0902954000000001E-8</v>
@@ -4604,7 +4763,9 @@
       <c r="G78" s="5">
         <v>268.65000000000003</v>
       </c>
-      <c r="H78" s="6"/>
+      <c r="H78">
+        <v>5.731578E-9</v>
+      </c>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
@@ -4617,8 +4778,8 @@
       <c r="C79" s="3">
         <v>22.61</v>
       </c>
-      <c r="D79" s="2">
-        <v>3.5277679E-8</v>
+      <c r="D79">
+        <v>6.1180270000000001E-9</v>
       </c>
       <c r="F79" s="2">
         <v>3.5277679E-8</v>
@@ -4626,7 +4787,9 @@
       <c r="G79" s="5">
         <v>282.15000000000003</v>
       </c>
-      <c r="H79" s="6"/>
+      <c r="H79">
+        <v>6.1180270000000001E-9</v>
+      </c>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -4639,8 +4802,8 @@
       <c r="C80" s="3">
         <v>22.61</v>
       </c>
-      <c r="D80" s="2">
-        <v>3.4474660999999997E-8</v>
+      <c r="D80">
+        <v>6.5233330000000002E-9</v>
       </c>
       <c r="F80" s="2">
         <v>3.4474660999999997E-8</v>
@@ -4648,7 +4811,9 @@
       <c r="G80" s="5">
         <v>302.84999999999997</v>
       </c>
-      <c r="H80" s="6"/>
+      <c r="H80">
+        <v>6.5233330000000002E-9</v>
+      </c>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -4661,8 +4826,8 @@
       <c r="C81" s="3">
         <v>22.61</v>
       </c>
-      <c r="D81" s="2">
-        <v>3.7153523E-8</v>
+      <c r="D81">
+        <v>6.956414E-9</v>
       </c>
       <c r="F81" s="2">
         <v>3.7153523E-8</v>
@@ -4670,7 +4835,9 @@
       <c r="G81" s="5">
         <v>327.59999999999997</v>
       </c>
-      <c r="H81" s="6"/>
+      <c r="H81">
+        <v>6.956414E-9</v>
+      </c>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
@@ -4683,8 +4850,8 @@
       <c r="C82" s="3">
         <v>22.61</v>
       </c>
-      <c r="D82" s="2">
-        <v>3.9355008E-8</v>
+      <c r="D82">
+        <v>7.3003090000000001E-9</v>
       </c>
       <c r="F82" s="2">
         <v>3.9355008E-8</v>
@@ -4692,7 +4859,9 @@
       <c r="G82" s="5">
         <v>346.95</v>
       </c>
-      <c r="H82" s="6"/>
+      <c r="H82">
+        <v>7.3003090000000001E-9</v>
+      </c>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
@@ -4705,8 +4874,8 @@
       <c r="C83" s="3">
         <v>22.61</v>
       </c>
-      <c r="D83" s="2">
-        <v>4.1927600000000002E-8</v>
+      <c r="D83">
+        <v>7.7781329999999996E-9</v>
       </c>
       <c r="F83" s="2">
         <v>4.1927600000000002E-8</v>
@@ -4714,7 +4883,9 @@
       <c r="G83" s="5">
         <v>363.15000000000003</v>
       </c>
-      <c r="H83" s="6"/>
+      <c r="H83">
+        <v>7.7781329999999996E-9</v>
+      </c>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
@@ -4727,8 +4898,8 @@
       <c r="C84" s="3">
         <v>22.61</v>
       </c>
-      <c r="D84" s="2">
-        <v>4.3401026000000001E-8</v>
+      <c r="D84">
+        <v>8.2836530000000002E-9</v>
       </c>
       <c r="F84" s="2">
         <v>4.3401026000000001E-8</v>
@@ -4736,7 +4907,9 @@
       <c r="G84" s="5">
         <v>380.7</v>
       </c>
-      <c r="H84" s="6"/>
+      <c r="H84">
+        <v>8.2836530000000002E-9</v>
+      </c>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
@@ -4749,8 +4922,8 @@
       <c r="C85" s="3">
         <v>22.61</v>
       </c>
-      <c r="D85" s="2">
-        <v>4.7315125999999998E-8</v>
+      <c r="D85">
+        <v>8.8330389999999996E-9</v>
       </c>
       <c r="F85" s="2">
         <v>4.7315125999999998E-8</v>
@@ -4758,7 +4931,9 @@
       <c r="G85" s="5">
         <v>414</v>
       </c>
-      <c r="H85" s="6"/>
+      <c r="H85">
+        <v>8.8330389999999996E-9</v>
+      </c>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -4771,8 +4946,8 @@
       <c r="C86" s="3">
         <v>22.61</v>
       </c>
-      <c r="D86" s="2">
-        <v>4.9260634000000003E-8</v>
+      <c r="D86">
+        <v>9.4086359999999999E-9</v>
       </c>
       <c r="F86" s="2">
         <v>4.9260634000000003E-8</v>
@@ -4780,7 +4955,9 @@
       <c r="G86" s="5">
         <v>441.44999999999993</v>
       </c>
-      <c r="H86" s="6"/>
+      <c r="H86">
+        <v>9.4086359999999999E-9</v>
+      </c>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -4793,8 +4970,8 @@
       <c r="C87" s="3">
         <v>22.61</v>
       </c>
-      <c r="D87" s="2">
-        <v>5.2783720999999998E-8</v>
+      <c r="D87">
+        <v>9.8670680000000001E-9</v>
       </c>
       <c r="F87" s="2">
         <v>5.2783720999999998E-8</v>
@@ -4802,7 +4979,9 @@
       <c r="G87" s="5">
         <v>468</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87">
+        <v>9.8670680000000001E-9</v>
+      </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
@@ -4815,8 +4994,8 @@
       <c r="C88" s="3">
         <v>22.61</v>
       </c>
-      <c r="D88" s="2">
-        <v>5.8546374E-8</v>
+      <c r="D88">
+        <v>1.0501539999999999E-8</v>
       </c>
       <c r="F88" s="2">
         <v>5.8546374E-8</v>
@@ -4824,7 +5003,9 @@
       <c r="G88" s="5">
         <v>499.94999999999993</v>
       </c>
-      <c r="H88" s="6"/>
+      <c r="H88">
+        <v>1.0501539999999999E-8</v>
+      </c>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
@@ -4837,8 +5018,8 @@
       <c r="C89" s="3">
         <v>22.61</v>
       </c>
-      <c r="D89" s="2">
-        <v>5.8884365999999997E-8</v>
+      <c r="D89">
+        <v>1.1180610000000001E-8</v>
       </c>
       <c r="F89" s="2">
         <v>5.8884365999999997E-8</v>
@@ -4846,7 +5027,9 @@
       <c r="G89" s="5">
         <v>523.34999999999991</v>
       </c>
-      <c r="H89" s="6"/>
+      <c r="H89">
+        <v>1.1180610000000001E-8</v>
+      </c>
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
@@ -4859,8 +5042,8 @@
       <c r="C90" s="3">
         <v>22.61</v>
       </c>
-      <c r="D90" s="2">
-        <v>7.1203280000000002E-8</v>
+      <c r="D90">
+        <v>1.190909E-8</v>
       </c>
       <c r="F90" s="2">
         <v>7.1203280000000002E-8</v>
@@ -4868,7 +5051,9 @@
       <c r="G90" s="5">
         <v>569.25</v>
       </c>
-      <c r="H90" s="6"/>
+      <c r="H90">
+        <v>1.190909E-8</v>
+      </c>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
@@ -4881,8 +5066,8 @@
       <c r="C91" s="3">
         <v>22.61</v>
       </c>
-      <c r="D91" s="2">
-        <v>6.7608298000000001E-8</v>
+      <c r="D91">
+        <v>1.2687060000000001E-8</v>
       </c>
       <c r="F91" s="2">
         <v>6.7608298000000001E-8</v>
@@ -4890,7 +5075,9 @@
       <c r="G91" s="5">
         <v>604.80000000000007</v>
       </c>
-      <c r="H91" s="6"/>
+      <c r="H91">
+        <v>1.2687060000000001E-8</v>
+      </c>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -4903,8 +5090,8 @@
       <c r="C92" s="3">
         <v>22.61</v>
       </c>
-      <c r="D92" s="2">
-        <v>7.8976884999999999E-8</v>
+      <c r="D92">
+        <v>1.351228E-8</v>
       </c>
       <c r="F92" s="2">
         <v>7.8976884999999999E-8</v>
@@ -4912,7 +5099,9 @@
       <c r="G92" s="5">
         <v>646.65</v>
       </c>
-      <c r="H92" s="6"/>
+      <c r="H92">
+        <v>1.351228E-8</v>
+      </c>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -4925,8 +5114,8 @@
       <c r="C93" s="3">
         <v>22.61</v>
       </c>
-      <c r="D93" s="2">
-        <v>7.5422340000000001E-8</v>
+      <c r="D93">
+        <v>1.417123E-8</v>
       </c>
       <c r="F93" s="2">
         <v>7.5422340000000001E-8</v>
@@ -4934,7 +5123,9 @@
       <c r="G93" s="5">
         <v>680.85</v>
       </c>
-      <c r="H93" s="6"/>
+      <c r="H93">
+        <v>1.417123E-8</v>
+      </c>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
@@ -4947,8 +5138,8 @@
       <c r="C94" s="3">
         <v>22.61</v>
       </c>
-      <c r="D94" s="2">
-        <v>8.2224265000000004E-8</v>
+      <c r="D94">
+        <v>1.439493E-8</v>
       </c>
       <c r="F94" s="2">
         <v>8.2224265000000004E-8</v>
@@ -4956,7 +5147,9 @@
       <c r="G94" s="5">
         <v>732.6</v>
       </c>
-      <c r="H94" s="6"/>
+      <c r="H94">
+        <v>1.439493E-8</v>
+      </c>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
@@ -4969,8 +5162,8 @@
       <c r="C95" s="3">
         <v>22.61</v>
       </c>
-      <c r="D95" s="2">
-        <v>8.5605171000000003E-8</v>
+      <c r="D95">
+        <v>2.1954261E-8</v>
       </c>
       <c r="F95" s="2">
         <v>8.5605171000000003E-8</v>
@@ -4978,7 +5171,9 @@
       <c r="G95" s="5">
         <v>733.05</v>
       </c>
-      <c r="H95" s="6"/>
+      <c r="H95">
+        <v>2.1954261E-8</v>
+      </c>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
@@ -4991,8 +5186,8 @@
       <c r="C96" s="3">
         <v>22.61</v>
       </c>
-      <c r="D96" s="2">
-        <v>1.00577306E-7</v>
+      <c r="D96">
+        <v>2.2035399E-8</v>
       </c>
       <c r="F96" s="2">
         <v>1.00577306E-7</v>
@@ -5000,7 +5195,9 @@
       <c r="G96" s="5">
         <v>766.8</v>
       </c>
-      <c r="H96" s="6"/>
+      <c r="H96">
+        <v>2.2035399E-8</v>
+      </c>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -5013,8 +5210,8 @@
       <c r="C97" s="3">
         <v>22.61</v>
       </c>
-      <c r="D97" s="2">
-        <v>9.7162795000000005E-8</v>
+      <c r="D97">
+        <v>2.2222579000000001E-8</v>
       </c>
       <c r="F97" s="2">
         <v>9.7162795000000005E-8</v>
@@ -5022,7 +5219,9 @@
       <c r="G97" s="5">
         <v>839.7</v>
       </c>
-      <c r="H97" s="6"/>
+      <c r="H97">
+        <v>2.2222579000000001E-8</v>
+      </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -5035,8 +5234,8 @@
       <c r="C98" s="3">
         <v>22.61</v>
       </c>
-      <c r="D98" s="2">
-        <v>1.02329299E-7</v>
+      <c r="D98">
+        <v>2.257463E-8</v>
       </c>
       <c r="F98" s="2">
         <v>1.02329299E-7</v>
@@ -5044,7 +5243,9 @@
       <c r="G98" s="5">
         <v>870.75</v>
       </c>
-      <c r="H98" s="6"/>
+      <c r="H98">
+        <v>2.257463E-8</v>
+      </c>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -5057,8 +5258,8 @@
       <c r="C99" s="3">
         <v>22.61</v>
       </c>
-      <c r="D99" s="2">
-        <v>1.16144861E-7</v>
+      <c r="D99">
+        <v>2.2941669999999999E-8</v>
       </c>
       <c r="F99" s="2">
         <v>1.16144861E-7</v>
@@ -5066,7 +5267,9 @@
       <c r="G99" s="5">
         <v>939.59999999999991</v>
       </c>
-      <c r="H99" s="6"/>
+      <c r="H99">
+        <v>2.2941669999999999E-8</v>
+      </c>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -5079,8 +5282,8 @@
       <c r="C100" s="3">
         <v>22.61</v>
       </c>
-      <c r="D100" s="2">
-        <v>1.16144861E-7</v>
+      <c r="D100">
+        <v>2.3581141E-8</v>
       </c>
       <c r="F100" s="2">
         <v>1.16144861E-7</v>
@@ -5088,7 +5291,9 @@
       <c r="G100" s="5">
         <v>993.59999999999991</v>
       </c>
-      <c r="H100" s="6"/>
+      <c r="H100">
+        <v>2.3581141E-8</v>
+      </c>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
@@ -5101,8 +5306,8 @@
       <c r="C101" s="3">
         <v>22.61</v>
       </c>
-      <c r="D101" s="2">
-        <v>1.216186E-7</v>
+      <c r="D101">
+        <v>2.4397171000000002E-8</v>
       </c>
       <c r="F101" s="2">
         <v>1.216186E-7</v>
@@ -5110,7 +5315,9 @@
       <c r="G101" s="5">
         <v>1067.8499999999999</v>
       </c>
-      <c r="H101" s="6"/>
+      <c r="H101">
+        <v>2.4397171000000002E-8</v>
+      </c>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -5123,8 +5330,8 @@
       <c r="C102" s="3">
         <v>22.61</v>
       </c>
-      <c r="D102" s="2">
-        <v>1.3182567399999999E-7</v>
+      <c r="D102">
+        <v>2.5409459E-8</v>
       </c>
       <c r="F102" s="2">
         <v>1.3182567399999999E-7</v>
@@ -5132,7 +5339,9 @@
       <c r="G102" s="5">
         <v>1139.4000000000001</v>
       </c>
-      <c r="H102" s="6"/>
+      <c r="H102">
+        <v>2.5409459E-8</v>
+      </c>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -5145,8 +5354,8 @@
       <c r="C103" s="3">
         <v>22.61</v>
       </c>
-      <c r="D103" s="2">
-        <v>1.4125375400000001E-7</v>
+      <c r="D103">
+        <v>2.6620030999999999E-8</v>
       </c>
       <c r="F103" s="2">
         <v>1.4125375400000001E-7</v>
@@ -5154,7 +5363,9 @@
       <c r="G103" s="5">
         <v>1189.3499999999999</v>
       </c>
-      <c r="H103" s="6"/>
+      <c r="H103">
+        <v>2.6620030999999999E-8</v>
+      </c>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -5167,8 +5378,8 @@
       <c r="C104" s="3">
         <v>22.61</v>
       </c>
-      <c r="D104" s="2">
-        <v>1.4876473699999999E-7</v>
+      <c r="D104">
+        <v>2.7681179999999999E-8</v>
       </c>
       <c r="F104" s="2">
         <v>1.4876473699999999E-7</v>
@@ -5176,7 +5387,9 @@
       <c r="G104" s="5">
         <v>1302.75</v>
       </c>
-      <c r="H104" s="6"/>
+      <c r="H104">
+        <v>2.7681179999999999E-8</v>
+      </c>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -5189,8 +5402,8 @@
       <c r="C105" s="3">
         <v>22.61</v>
       </c>
-      <c r="D105" s="2">
-        <v>1.71790839E-7</v>
+      <c r="D105">
+        <v>2.9284930000000001E-8</v>
       </c>
       <c r="F105" s="2">
         <v>1.71790839E-7</v>
@@ -5198,7 +5411,9 @@
       <c r="G105" s="5">
         <v>1367.55</v>
       </c>
-      <c r="H105" s="6"/>
+      <c r="H105">
+        <v>2.9284930000000001E-8</v>
+      </c>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -5211,8 +5426,8 @@
       <c r="C106" s="3">
         <v>22.61</v>
       </c>
-      <c r="D106" s="2">
-        <v>1.6500610000000001E-7</v>
+      <c r="D106">
+        <v>3.1097218999999997E-8</v>
       </c>
       <c r="F106" s="2">
         <v>1.6500610000000001E-7</v>
@@ -5220,7 +5435,9 @@
       <c r="G106" s="5">
         <v>1443.15</v>
       </c>
-      <c r="H106" s="6"/>
+      <c r="H106">
+        <v>3.1097218999999997E-8</v>
+      </c>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
@@ -5233,8 +5450,8 @@
       <c r="C107" s="3">
         <v>22.61</v>
       </c>
-      <c r="D107" s="2">
-        <v>1.75792361E-7</v>
+      <c r="D107">
+        <v>3.3104558999999999E-8</v>
       </c>
       <c r="F107" s="2">
         <v>1.75792361E-7</v>
@@ -5242,7 +5459,9 @@
       <c r="G107" s="5">
         <v>1539</v>
       </c>
-      <c r="H107" s="6"/>
+      <c r="H107">
+        <v>3.3104558999999999E-8</v>
+      </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -5255,8 +5474,8 @@
       <c r="C108" s="3">
         <v>22.61</v>
       </c>
-      <c r="D108" s="2">
-        <v>1.840772E-7</v>
+      <c r="D108">
+        <v>3.5242258999999999E-8</v>
       </c>
       <c r="F108" s="2">
         <v>1.840772E-7</v>
@@ -5264,7 +5483,9 @@
       <c r="G108" s="5">
         <v>1640.25</v>
       </c>
-      <c r="H108" s="6"/>
+      <c r="H108">
+        <v>3.5242258999999999E-8</v>
+      </c>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -5277,8 +5498,8 @@
       <c r="C109" s="3">
         <v>22.61</v>
       </c>
-      <c r="D109" s="2">
-        <v>2.0067810899999999E-7</v>
+      <c r="D109">
+        <v>3.7514741999999999E-8</v>
       </c>
       <c r="F109" s="2">
         <v>2.0067810899999999E-7</v>
@@ -5286,7 +5507,9 @@
       <c r="G109" s="5">
         <v>1763.1</v>
       </c>
-      <c r="H109" s="6"/>
+      <c r="H109">
+        <v>3.7514741999999999E-8</v>
+      </c>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -5299,8 +5522,8 @@
       <c r="C110" s="3">
         <v>22.61</v>
       </c>
-      <c r="D110" s="2">
-        <v>2.08929613E-7</v>
+      <c r="D110">
+        <v>3.9311710999999999E-8</v>
       </c>
       <c r="F110" s="2">
         <v>2.08929613E-7</v>
@@ -5308,7 +5531,9 @@
       <c r="G110" s="5">
         <v>1850.85</v>
       </c>
-      <c r="H110" s="6"/>
+      <c r="H110">
+        <v>3.9311710999999999E-8</v>
+      </c>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -5321,8 +5546,8 @@
       <c r="C111" s="3">
         <v>22.61</v>
       </c>
-      <c r="D111" s="2">
-        <v>2.2003917099999999E-7</v>
+      <c r="D111">
+        <v>4.1861500999999998E-8</v>
       </c>
       <c r="F111" s="2">
         <v>2.2003917099999999E-7</v>
@@ -5330,7 +5555,9 @@
       <c r="G111" s="5">
         <v>1949.4</v>
       </c>
-      <c r="H111" s="6"/>
+      <c r="H111">
+        <v>4.1861500999999998E-8</v>
+      </c>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -5343,8 +5570,8 @@
       <c r="C112" s="3">
         <v>22.61</v>
       </c>
-      <c r="D112" s="2">
-        <v>2.5118864300000002E-7</v>
+      <c r="D112">
+        <v>4.4550809000000002E-8</v>
       </c>
       <c r="F112" s="2">
         <v>2.5118864300000002E-7</v>
@@ -5352,7 +5579,9 @@
       <c r="G112" s="5">
         <v>2120.85</v>
       </c>
-      <c r="H112" s="6"/>
+      <c r="H112">
+        <v>4.4550809000000002E-8</v>
+      </c>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
@@ -5365,8 +5594,8 @@
       <c r="C113" s="3">
         <v>22.61</v>
       </c>
-      <c r="D113" s="2">
-        <v>2.4974683899999999E-7</v>
+      <c r="D113">
+        <v>4.7444260000000001E-8</v>
       </c>
       <c r="F113" s="2">
         <v>2.4974683899999999E-7</v>
@@ -5374,7 +5603,9 @@
       <c r="G113" s="5">
         <v>1915.6499999999999</v>
       </c>
-      <c r="H113" s="6"/>
+      <c r="H113">
+        <v>4.7444260000000001E-8</v>
+      </c>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.45">
@@ -5387,8 +5618,8 @@
       <c r="C114" s="3">
         <v>22.61</v>
       </c>
-      <c r="D114" s="2">
-        <v>2.7070731999999999E-7</v>
+      <c r="D114">
+        <v>5.0526658000000003E-8</v>
       </c>
       <c r="F114" s="2">
         <v>2.7070731999999999E-7</v>
@@ -5396,7 +5627,9 @@
       <c r="G114" s="5">
         <v>2057.3999999999996</v>
       </c>
-      <c r="H114" s="6"/>
+      <c r="H114">
+        <v>5.0526658000000003E-8</v>
+      </c>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.45">
@@ -5409,8 +5642,8 @@
       <c r="C115" s="3">
         <v>22.61</v>
       </c>
-      <c r="D115" s="2">
-        <v>2.8183829299999999E-7</v>
+      <c r="D115">
+        <v>5.3787669000000002E-8</v>
       </c>
       <c r="F115" s="2">
         <v>2.8183829299999999E-7</v>
@@ -5418,7 +5651,9 @@
       <c r="G115" s="5">
         <v>2166.75</v>
       </c>
-      <c r="H115" s="6"/>
+      <c r="H115">
+        <v>5.3787669000000002E-8</v>
+      </c>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.45">
@@ -5431,8 +5666,8 @@
       <c r="C116" s="3">
         <v>22.61</v>
       </c>
-      <c r="D116" s="2">
-        <v>3.2923045299999999E-7</v>
+      <c r="D116">
+        <v>5.6376268999999998E-8</v>
       </c>
       <c r="F116" s="2">
         <v>3.2923045299999999E-7</v>
@@ -5440,7 +5675,9 @@
       <c r="G116" s="5">
         <v>2304.4499999999998</v>
       </c>
-      <c r="H116" s="6"/>
+      <c r="H116">
+        <v>5.6376268999999998E-8</v>
+      </c>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.45">
@@ -5453,8 +5690,8 @@
       <c r="C117" s="3">
         <v>22.61</v>
       </c>
-      <c r="D117" s="2">
-        <v>3.1988951100000001E-7</v>
+      <c r="D117">
+        <v>6.0006960999999993E-8</v>
       </c>
       <c r="F117" s="2">
         <v>3.1988951100000001E-7</v>
@@ -5462,7 +5699,9 @@
       <c r="G117" s="5">
         <v>2490.75</v>
       </c>
-      <c r="H117" s="6"/>
+      <c r="H117">
+        <v>6.0006960999999993E-8</v>
+      </c>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.45">
@@ -5475,8 +5714,8 @@
       <c r="C118" s="3">
         <v>22.61</v>
       </c>
-      <c r="D118" s="2">
-        <v>3.52776787E-7</v>
+      <c r="D118">
+        <v>6.388521E-8</v>
       </c>
       <c r="F118" s="2">
         <v>3.52776787E-7</v>
@@ -5484,7 +5723,9 @@
       <c r="G118" s="5">
         <v>2628.4500000000003</v>
       </c>
-      <c r="H118" s="6"/>
+      <c r="H118">
+        <v>6.388521E-8</v>
+      </c>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.45">
@@ -5497,8 +5738,8 @@
       <c r="C119" s="3">
         <v>22.61</v>
       </c>
-      <c r="D119" s="2">
-        <v>3.6307805499999998E-7</v>
+      <c r="D119">
+        <v>6.8028051000000005E-8</v>
       </c>
       <c r="F119" s="2">
         <v>3.6307805499999998E-7</v>
@@ -5506,7 +5747,9 @@
       <c r="G119" s="5">
         <v>2867.3999999999996</v>
       </c>
-      <c r="H119" s="6"/>
+      <c r="H119">
+        <v>6.8028051000000005E-8</v>
+      </c>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
@@ -5519,8 +5762,8 @@
       <c r="C120" s="3">
         <v>22.61</v>
       </c>
-      <c r="D120" s="2">
-        <v>3.8238425399999999E-7</v>
+      <c r="D120">
+        <v>7.2425067000000006E-8</v>
       </c>
       <c r="F120" s="2">
         <v>3.8238425399999999E-7</v>
@@ -5528,7 +5771,9 @@
       <c r="G120" s="5">
         <v>2972.7000000000003</v>
       </c>
-      <c r="H120" s="6"/>
+      <c r="H120">
+        <v>7.2425067000000006E-8</v>
+      </c>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
@@ -5541,8 +5786,8 @@
       <c r="C121" s="3">
         <v>22.61</v>
       </c>
-      <c r="D121" s="2">
-        <v>4.1927599700000002E-7</v>
+      <c r="D121">
+        <v>7.5916503000000001E-8</v>
       </c>
       <c r="F121" s="2">
         <v>4.1927599700000002E-7</v>
@@ -5550,7 +5795,9 @@
       <c r="G121" s="5">
         <v>3244.0499999999997</v>
       </c>
-      <c r="H121" s="6"/>
+      <c r="H121">
+        <v>7.5916503000000001E-8</v>
+      </c>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
@@ -5563,8 +5810,8 @@
       <c r="C122" s="3">
         <v>22.61</v>
       </c>
-      <c r="D122" s="2">
-        <v>4.3401026400000001E-7</v>
+      <c r="D122">
+        <v>8.0804647000000005E-8</v>
       </c>
       <c r="F122" s="2">
         <v>4.3401026400000001E-7</v>
@@ -5572,7 +5819,9 @@
       <c r="G122" s="5">
         <v>3402</v>
       </c>
-      <c r="H122" s="6"/>
+      <c r="H122">
+        <v>8.0804647000000005E-8</v>
+      </c>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
@@ -5585,8 +5834,8 @@
       <c r="C123" s="3">
         <v>22.61</v>
       </c>
-      <c r="D123" s="2">
-        <v>4.5185594399999998E-7</v>
+      <c r="D123">
+        <v>8.6030632E-8</v>
       </c>
       <c r="F123" s="2">
         <v>4.5185594399999998E-7</v>
@@ -5594,7 +5843,9 @@
       <c r="G123" s="5">
         <v>3600.4500000000003</v>
       </c>
-      <c r="H123" s="6"/>
+      <c r="H123">
+        <v>8.6030632E-8</v>
+      </c>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.45">
@@ -5607,8 +5858,8 @@
       <c r="C124" s="3">
         <v>22.61</v>
       </c>
-      <c r="D124" s="2">
-        <v>4.8977881899999999E-7</v>
+      <c r="D124">
+        <v>9.1610466999999998E-8</v>
       </c>
       <c r="F124" s="2">
         <v>4.8977881899999999E-7</v>
@@ -5616,7 +5867,9 @@
       <c r="G124" s="5">
         <v>3908.25</v>
       </c>
-      <c r="H124" s="6"/>
+      <c r="H124">
+        <v>9.1610466999999998E-8</v>
+      </c>
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.45">

--- a/History/FR/history_23.xlsx
+++ b/History/FR/history_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Reactivity_Analyzer\C++\Euler\History\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EC521-D00F-4D17-BA90-F0DD8991C7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941F064B-601A-4D5E-9320-0294B21D6F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3003,8 +3003,8 @@
       <c r="C2" s="3">
         <v>22.61</v>
       </c>
-      <c r="D2">
-        <v>5.7955599999999998E-10</v>
+      <c r="D2" s="2">
+        <v>2.2516449999999998E-9</v>
       </c>
       <c r="F2" s="2">
         <v>2.2516449999999998E-9</v>
@@ -3026,8 +3026,8 @@
       <c r="C3" s="3">
         <v>22.61</v>
       </c>
-      <c r="D3">
-        <v>5.7919599999999999E-10</v>
+      <c r="D3" s="2">
+        <v>1.3106899999999999E-9</v>
       </c>
       <c r="F3" s="2">
         <v>1.3106899999999999E-9</v>
@@ -3049,8 +3049,8 @@
       <c r="C4" s="3">
         <v>22.61</v>
       </c>
-      <c r="D4">
-        <v>5.7840799999999995E-10</v>
+      <c r="D4" s="2">
+        <v>2.0653800000000002E-9</v>
       </c>
       <c r="F4" s="2">
         <v>2.0653800000000002E-9</v>
@@ -3072,8 +3072,8 @@
       <c r="C5" s="3">
         <v>22.61</v>
       </c>
-      <c r="D5">
-        <v>5.7857200000000002E-10</v>
+      <c r="D5" s="2">
+        <v>2.2908680000000002E-9</v>
       </c>
       <c r="F5" s="2">
         <v>2.2908680000000002E-9</v>
@@ -3095,8 +3095,8 @@
       <c r="C6" s="3">
         <v>22.61</v>
       </c>
-      <c r="D6">
-        <v>5.7880000000000001E-10</v>
+      <c r="D6" s="2">
+        <v>2.0535250000000001E-9</v>
       </c>
       <c r="F6" s="2">
         <v>2.0535250000000001E-9</v>
@@ -3118,8 +3118,8 @@
       <c r="C7" s="3">
         <v>22.61</v>
       </c>
-      <c r="D7">
-        <v>5.7959700000000002E-10</v>
+      <c r="D7" s="2">
+        <v>2.9006809999999999E-9</v>
       </c>
       <c r="F7" s="2">
         <v>2.9006809999999999E-9</v>
@@ -3141,8 +3141,8 @@
       <c r="C8" s="3">
         <v>22.61</v>
       </c>
-      <c r="D8">
-        <v>5.8048399999999998E-10</v>
+      <c r="D8" s="2">
+        <v>2.1013580000000001E-9</v>
       </c>
       <c r="F8" s="2">
         <v>2.1013580000000001E-9</v>
@@ -3164,8 +3164,8 @@
       <c r="C9" s="3">
         <v>22.61</v>
       </c>
-      <c r="D9">
-        <v>5.8211099999999998E-10</v>
+      <c r="D9" s="2">
+        <v>2.630268E-9</v>
       </c>
       <c r="F9" s="2">
         <v>2.630268E-9</v>
@@ -3187,8 +3187,8 @@
       <c r="C10" s="3">
         <v>22.61</v>
       </c>
-      <c r="D10">
-        <v>5.8444600000000005E-10</v>
+      <c r="D10" s="2">
+        <v>1.727826E-9</v>
       </c>
       <c r="F10" s="2">
         <v>1.727826E-9</v>
@@ -3210,8 +3210,8 @@
       <c r="C11" s="3">
         <v>22.61</v>
       </c>
-      <c r="D11">
-        <v>5.8613399999999995E-10</v>
+      <c r="D11" s="2">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F11" s="2">
         <v>2.3713739999999999E-9</v>
@@ -3233,8 +3233,8 @@
       <c r="C12" s="3">
         <v>22.61</v>
       </c>
-      <c r="D12">
-        <v>5.88104E-10</v>
+      <c r="D12" s="2">
+        <v>1.420692E-9</v>
       </c>
       <c r="F12" s="2">
         <v>1.420692E-9</v>
@@ -3256,8 +3256,8 @@
       <c r="C13" s="3">
         <v>22.61</v>
       </c>
-      <c r="D13">
-        <v>5.9077599999999997E-10</v>
+      <c r="D13" s="2">
+        <v>2.2130950000000002E-9</v>
       </c>
       <c r="F13" s="2">
         <v>2.2130950000000002E-9</v>
@@ -3279,8 +3279,8 @@
       <c r="C14" s="3">
         <v>22.61</v>
       </c>
-      <c r="D14">
-        <v>5.9382300000000005E-10</v>
+      <c r="D14" s="2">
+        <v>2.6151700000000002E-9</v>
       </c>
       <c r="F14" s="2">
         <v>2.6151700000000002E-9</v>
@@ -3302,8 +3302,8 @@
       <c r="C15" s="3">
         <v>22.61</v>
       </c>
-      <c r="D15">
-        <v>5.98204E-10</v>
+      <c r="D15" s="2">
+        <v>2.344229E-9</v>
       </c>
       <c r="F15" s="2">
         <v>2.344229E-9</v>
@@ -3325,8 +3325,8 @@
       <c r="C16" s="3">
         <v>22.61</v>
       </c>
-      <c r="D16">
-        <v>6.01929E-10</v>
+      <c r="D16" s="2">
+        <v>2.985383E-9</v>
       </c>
       <c r="F16" s="2">
         <v>2.985383E-9</v>
@@ -3348,8 +3348,8 @@
       <c r="C17" s="3">
         <v>22.61</v>
       </c>
-      <c r="D17">
-        <v>6.0592899999999999E-10</v>
+      <c r="D17" s="2">
+        <v>2.3307729999999999E-9</v>
       </c>
       <c r="F17" s="2">
         <v>2.3307729999999999E-9</v>
@@ -3371,8 +3371,8 @@
       <c r="C18" s="3">
         <v>22.61</v>
       </c>
-      <c r="D18">
-        <v>6.0903899999999999E-10</v>
+      <c r="D18" s="2">
+        <v>2.707073E-9</v>
       </c>
       <c r="F18" s="2">
         <v>2.707073E-9</v>
@@ -3394,8 +3394,8 @@
       <c r="C19" s="3">
         <v>22.61</v>
       </c>
-      <c r="D19">
-        <v>6.1140500000000002E-10</v>
+      <c r="D19" s="2">
+        <v>2.1877620000000001E-9</v>
       </c>
       <c r="F19" s="2">
         <v>2.1877620000000001E-9</v>
@@ -3417,8 +3417,8 @@
       <c r="C20" s="3">
         <v>22.61</v>
       </c>
-      <c r="D20">
-        <v>6.15235E-10</v>
+      <c r="D20" s="2">
+        <v>2.8840319999999998E-9</v>
       </c>
       <c r="F20" s="2">
         <v>2.8840319999999998E-9</v>
@@ -3440,8 +3440,8 @@
       <c r="C21" s="3">
         <v>22.61</v>
       </c>
-      <c r="D21">
-        <v>6.1958499999999999E-10</v>
+      <c r="D21" s="2">
+        <v>1.7179080000000001E-9</v>
       </c>
       <c r="F21" s="2">
         <v>1.7179080000000001E-9</v>
@@ -3463,8 +3463,8 @@
       <c r="C22" s="3">
         <v>22.61</v>
       </c>
-      <c r="D22">
-        <v>6.2456099999999997E-10</v>
+      <c r="D22" s="2">
+        <v>2.93427E-9</v>
       </c>
       <c r="F22" s="2">
         <v>2.93427E-9</v>
@@ -3486,8 +3486,8 @@
       <c r="C23" s="3">
         <v>22.61</v>
       </c>
-      <c r="D23">
-        <v>6.2961900000000004E-10</v>
+      <c r="D23" s="2">
+        <v>1.5667509999999999E-9</v>
       </c>
       <c r="F23" s="2">
         <v>1.5667509999999999E-9</v>
@@ -3509,8 +3509,8 @@
       <c r="C24" s="3">
         <v>22.61</v>
       </c>
-      <c r="D24">
-        <v>6.3407800000000003E-10</v>
+      <c r="D24" s="2">
+        <v>2.834654E-9</v>
       </c>
       <c r="F24" s="2">
         <v>2.834654E-9</v>
@@ -3532,8 +3532,8 @@
       <c r="C25" s="3">
         <v>22.61</v>
       </c>
-      <c r="D25">
-        <v>6.3813199999999996E-10</v>
+      <c r="D25" s="2">
+        <v>1.9164610000000001E-9</v>
       </c>
       <c r="F25" s="2">
         <v>1.9164610000000001E-9</v>
@@ -3555,8 +3555,8 @@
       <c r="C26" s="3">
         <v>22.61</v>
       </c>
-      <c r="D26">
-        <v>6.4437000000000002E-10</v>
+      <c r="D26" s="2">
+        <v>2.630268E-9</v>
       </c>
       <c r="F26" s="2">
         <v>2.630268E-9</v>
@@ -3578,8 +3578,8 @@
       <c r="C27" s="3">
         <v>22.61</v>
       </c>
-      <c r="D27">
-        <v>6.5173600000000003E-10</v>
+      <c r="D27" s="2">
+        <v>1.7478330000000001E-9</v>
       </c>
       <c r="F27" s="2">
         <v>1.7478330000000001E-9</v>
@@ -3601,8 +3601,8 @@
       <c r="C28" s="3">
         <v>22.61</v>
       </c>
-      <c r="D28">
-        <v>6.5857200000000005E-10</v>
+      <c r="D28" s="2">
+        <v>2.754229E-9</v>
       </c>
       <c r="F28" s="2">
         <v>2.754229E-9</v>
@@ -3624,8 +3624,8 @@
       <c r="C29" s="3">
         <v>22.61</v>
       </c>
-      <c r="D29">
-        <v>6.6689700000000002E-10</v>
+      <c r="D29" s="2">
+        <v>3.651741E-9</v>
       </c>
       <c r="F29" s="2">
         <v>3.651741E-9</v>
@@ -3647,8 +3647,8 @@
       <c r="C30" s="3">
         <v>22.61</v>
       </c>
-      <c r="D30">
-        <v>6.7583000000000003E-10</v>
+      <c r="D30" s="2">
+        <v>2.9174269999999998E-9</v>
       </c>
       <c r="F30" s="2">
         <v>2.9174269999999998E-9</v>
@@ -3670,8 +3670,8 @@
       <c r="C31" s="3">
         <v>22.61</v>
       </c>
-      <c r="D31">
-        <v>6.8429000000000002E-10</v>
+      <c r="D31" s="2">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F31" s="2">
         <v>3.3304279999999998E-9</v>
@@ -3693,8 +3693,8 @@
       <c r="C32" s="3">
         <v>22.61</v>
       </c>
-      <c r="D32">
-        <v>6.9571800000000004E-10</v>
+      <c r="D32" s="2">
+        <v>3.0199519999999999E-9</v>
       </c>
       <c r="F32" s="2">
         <v>3.0199519999999999E-9</v>
@@ -3716,8 +3716,8 @@
       <c r="C33" s="3">
         <v>22.61</v>
       </c>
-      <c r="D33">
-        <v>7.0852800000000002E-10</v>
+      <c r="D33" s="2">
+        <v>3.3113110000000001E-9</v>
       </c>
       <c r="F33" s="2">
         <v>3.3113110000000001E-9</v>
@@ -3739,8 +3739,8 @@
       <c r="C34" s="3">
         <v>22.61</v>
       </c>
-      <c r="D34">
-        <v>7.24087E-10</v>
+      <c r="D34" s="2">
+        <v>2.3040930000000002E-9</v>
       </c>
       <c r="F34" s="2">
         <v>2.3040930000000002E-9</v>
@@ -3762,8 +3762,8 @@
       <c r="C35" s="3">
         <v>22.61</v>
       </c>
-      <c r="D35">
-        <v>7.4136000000000001E-10</v>
+      <c r="D35" s="2">
+        <v>3.60994E-9</v>
       </c>
       <c r="F35" s="2">
         <v>3.60994E-9</v>
@@ -3785,8 +3785,8 @@
       <c r="C36" s="3">
         <v>22.61</v>
       </c>
-      <c r="D36">
-        <v>7.5441899999999996E-10</v>
+      <c r="D36" s="2">
+        <v>2.5852350000000001E-9</v>
       </c>
       <c r="F36" s="2">
         <v>2.5852350000000001E-9</v>
@@ -3808,8 +3808,8 @@
       <c r="C37" s="3">
         <v>22.61</v>
       </c>
-      <c r="D37">
-        <v>7.7196899999999996E-10</v>
+      <c r="D37" s="2">
+        <v>3.3304279999999998E-9</v>
       </c>
       <c r="F37" s="2">
         <v>3.3304279999999998E-9</v>
@@ -3831,8 +3831,8 @@
       <c r="C38" s="3">
         <v>22.61</v>
       </c>
-      <c r="D38">
-        <v>7.9175099999999999E-10</v>
+      <c r="D38" s="2">
+        <v>4.3151909999999998E-9</v>
       </c>
       <c r="F38" s="2">
         <v>4.3151909999999998E-9</v>
@@ -3854,8 +3854,8 @@
       <c r="C39" s="3">
         <v>22.61</v>
       </c>
-      <c r="D39">
-        <v>8.1279099999999995E-10</v>
+      <c r="D39" s="2">
+        <v>3.507519E-9</v>
       </c>
       <c r="F39" s="2">
         <v>3.507519E-9</v>
@@ -3877,8 +3877,8 @@
       <c r="C40" s="3">
         <v>22.61</v>
       </c>
-      <c r="D40">
-        <v>8.3468700000000001E-10</v>
+      <c r="D40" s="2">
+        <v>4.1927600000000003E-9</v>
       </c>
       <c r="F40" s="2">
         <v>4.1927600000000003E-9</v>
@@ -3900,8 +3900,8 @@
       <c r="C41" s="3">
         <v>22.61</v>
       </c>
-      <c r="D41">
-        <v>8.5807699999999997E-10</v>
+      <c r="D41" s="2">
+        <v>3.6307810000000001E-9</v>
       </c>
       <c r="F41" s="2">
         <v>3.6307810000000001E-9</v>
@@ -3923,8 +3923,8 @@
       <c r="C42" s="3">
         <v>22.61</v>
       </c>
-      <c r="D42">
-        <v>8.7686699999999997E-10</v>
+      <c r="D42" s="2">
+        <v>4.926063E-9</v>
       </c>
       <c r="F42" s="2">
         <v>4.926063E-9</v>
@@ -3946,8 +3946,8 @@
       <c r="C43" s="3">
         <v>22.61</v>
       </c>
-      <c r="D43">
-        <v>9.0386300000000005E-10</v>
+      <c r="D43" s="2">
+        <v>3.1260790000000001E-9</v>
       </c>
       <c r="F43" s="2">
         <v>3.1260790000000001E-9</v>
@@ -3969,8 +3969,8 @@
       <c r="C44" s="3">
         <v>22.61</v>
       </c>
-      <c r="D44">
-        <v>9.3358499999999994E-10</v>
+      <c r="D44" s="2">
+        <v>4.6238100000000004E-9</v>
       </c>
       <c r="F44" s="2">
         <v>4.6238100000000004E-9</v>
@@ -3992,8 +3992,8 @@
       <c r="C45" s="3">
         <v>22.61</v>
       </c>
-      <c r="D45">
-        <v>9.6310300000000004E-10</v>
+      <c r="D45" s="2">
+        <v>3.7153519999999998E-9</v>
       </c>
       <c r="F45" s="2">
         <v>3.7153519999999998E-9</v>
@@ -4015,8 +4015,8 @@
       <c r="C46" s="3">
         <v>22.61</v>
       </c>
-      <c r="D46">
-        <v>9.9565199999999999E-10</v>
+      <c r="D46" s="2">
+        <v>4.7315130000000001E-9</v>
       </c>
       <c r="F46" s="2">
         <v>4.7315130000000001E-9</v>
@@ -4038,8 +4038,8 @@
       <c r="C47" s="3">
         <v>22.61</v>
       </c>
-      <c r="D47">
-        <v>1.031997E-9</v>
+      <c r="D47" s="2">
+        <v>3.9129109999999998E-9</v>
       </c>
       <c r="F47" s="2">
         <v>3.9129109999999998E-9</v>
@@ -4061,8 +4061,8 @@
       <c r="C48" s="3">
         <v>22.61</v>
       </c>
-      <c r="D48">
-        <v>1.0601539999999999E-9</v>
+      <c r="D48" s="2">
+        <v>4.9545019999999996E-9</v>
       </c>
       <c r="F48" s="2">
         <v>4.9545019999999996E-9</v>
@@ -4084,8 +4084,8 @@
       <c r="C49" s="3">
         <v>22.61</v>
       </c>
-      <c r="D49">
-        <v>1.098564E-9</v>
+      <c r="D49" s="2">
+        <v>4.1209749999999996E-9</v>
       </c>
       <c r="F49" s="2">
         <v>4.1209749999999996E-9</v>
@@ -4107,8 +4107,8 @@
       <c r="C50" s="3">
         <v>22.61</v>
       </c>
-      <c r="D50">
-        <v>1.1438810000000001E-9</v>
+      <c r="D50" s="2">
+        <v>5.5271340000000002E-9</v>
       </c>
       <c r="F50" s="2">
         <v>5.5271340000000002E-9</v>
@@ -4130,8 +4130,8 @@
       <c r="C51" s="3">
         <v>22.61</v>
       </c>
-      <c r="D51">
-        <v>1.191424E-9</v>
+      <c r="D51" s="2">
+        <v>7.1614339999999998E-9</v>
       </c>
       <c r="F51" s="2">
         <v>7.1614339999999998E-9</v>
@@ -4153,8 +4153,8 @@
       <c r="C52" s="3">
         <v>22.61</v>
       </c>
-      <c r="D52">
-        <v>1.242624E-9</v>
+      <c r="D52" s="2">
+        <v>5.956621E-9</v>
       </c>
       <c r="F52" s="2">
         <v>5.956621E-9</v>
@@ -4176,8 +4176,8 @@
       <c r="C53" s="3">
         <v>22.61</v>
       </c>
-      <c r="D53">
-        <v>1.284797E-9</v>
+      <c r="D53" s="2">
+        <v>8.0352609999999993E-9</v>
       </c>
       <c r="F53" s="2">
         <v>8.0352609999999993E-9</v>
@@ -4199,8 +4199,8 @@
       <c r="C54" s="3">
         <v>22.61</v>
       </c>
-      <c r="D54">
-        <v>1.3423989999999999E-9</v>
+      <c r="D54" s="2">
+        <v>6.4565419999999999E-9</v>
       </c>
       <c r="F54" s="2">
         <v>6.4565419999999999E-9</v>
@@ -4222,8 +4222,8 @@
       <c r="C55" s="3">
         <v>22.61</v>
       </c>
-      <c r="D55">
-        <v>1.4061290000000001E-9</v>
+      <c r="D55" s="2">
+        <v>7.4989419999999996E-9</v>
       </c>
       <c r="F55" s="2">
         <v>7.4989419999999996E-9</v>
@@ -4245,8 +4245,8 @@
       <c r="C56" s="3">
         <v>22.61</v>
       </c>
-      <c r="D56">
-        <v>1.4765820000000001E-9</v>
+      <c r="D56" s="2">
+        <v>7.2027779999999996E-9</v>
       </c>
       <c r="F56" s="2">
         <v>7.2027779999999996E-9</v>
@@ -4268,8 +4268,8 @@
       <c r="C57" s="3">
         <v>22.61</v>
       </c>
-      <c r="D57">
-        <v>1.4951699999999999E-9</v>
+      <c r="D57" s="2">
+        <v>8.7096359999999997E-9</v>
       </c>
       <c r="F57" s="2">
         <v>8.7096359999999997E-9</v>
@@ -4291,8 +4291,8 @@
       <c r="C58" s="3">
         <v>22.61</v>
       </c>
-      <c r="D58">
-        <v>2.1742119999999999E-9</v>
+      <c r="D58" s="2">
+        <v>8.0352609999999993E-9</v>
       </c>
       <c r="F58" s="2">
         <v>8.0352609999999993E-9</v>
@@ -4314,8 +4314,8 @@
       <c r="C59" s="3">
         <v>22.61</v>
       </c>
-      <c r="D59">
-        <v>2.1801060000000002E-9</v>
+      <c r="D59" s="2">
+        <v>9.0677600000000001E-9</v>
       </c>
       <c r="F59" s="2">
         <v>9.0677600000000001E-9</v>
@@ -4337,8 +4337,8 @@
       <c r="C60" s="3">
         <v>22.61</v>
       </c>
-      <c r="D60">
-        <v>2.1974179999999998E-9</v>
+      <c r="D60" s="2">
+        <v>9.7162800000000007E-9</v>
       </c>
       <c r="F60" s="2">
         <v>9.7162800000000007E-9</v>
@@ -4360,8 +4360,8 @@
       <c r="C61" s="3">
         <v>22.61</v>
       </c>
-      <c r="D61">
-        <v>2.227692E-9</v>
+      <c r="D61" s="2">
+        <v>1.0653689000000001E-8</v>
       </c>
       <c r="F61" s="2">
         <v>1.0653689000000001E-8</v>
@@ -4383,8 +4383,8 @@
       <c r="C62" s="3">
         <v>22.61</v>
       </c>
-      <c r="D62">
-        <v>2.2745150000000002E-9</v>
+      <c r="D62" s="2">
+        <v>9.6605090000000003E-9</v>
       </c>
       <c r="F62" s="2">
         <v>9.6605090000000003E-9</v>
@@ -4406,8 +4406,8 @@
       <c r="C63" s="3">
         <v>22.61</v>
       </c>
-      <c r="D63">
-        <v>2.3409329999999998E-9</v>
+      <c r="D63" s="2">
+        <v>1.2445146E-8</v>
       </c>
       <c r="F63" s="2">
         <v>1.2445146E-8</v>
@@ -4429,8 +4429,8 @@
       <c r="C64" s="3">
         <v>22.61</v>
       </c>
-      <c r="D64">
-        <v>2.429774E-9</v>
+      <c r="D64" s="2">
+        <v>1.5135611999999999E-8</v>
       </c>
       <c r="F64" s="2">
         <v>1.5135611999999999E-8</v>
@@ -4452,8 +4452,8 @@
       <c r="C65" s="3">
         <v>22.61</v>
       </c>
-      <c r="D65">
-        <v>2.5145200000000001E-9</v>
+      <c r="D65" s="2">
+        <v>1.372461E-8</v>
       </c>
       <c r="F65" s="2">
         <v>1.372461E-8</v>
@@ -4475,8 +4475,8 @@
       <c r="C66" s="3">
         <v>22.61</v>
       </c>
-      <c r="D66">
-        <v>2.6473620000000001E-9</v>
+      <c r="D66" s="2">
+        <v>1.4706184E-8</v>
       </c>
       <c r="F66" s="2">
         <v>1.4706184E-8</v>
@@ -4498,8 +4498,8 @@
       <c r="C67" s="3">
         <v>22.61</v>
       </c>
-      <c r="D67">
-        <v>2.808905E-9</v>
+      <c r="D67" s="2">
+        <v>1.4876473999999999E-8</v>
       </c>
       <c r="F67" s="2">
         <v>1.4876473999999999E-8</v>
@@ -4521,8 +4521,8 @@
       <c r="C68" s="3">
         <v>22.61</v>
       </c>
-      <c r="D68">
-        <v>2.9948889999999999E-9</v>
+      <c r="D68" s="2">
+        <v>1.6788040000000001E-8</v>
       </c>
       <c r="F68" s="2">
         <v>1.6788040000000001E-8</v>
@@ -4544,8 +4544,8 @@
       <c r="C69" s="3">
         <v>22.61</v>
       </c>
-      <c r="D69">
-        <v>3.2045660000000002E-9</v>
+      <c r="D69" s="2">
+        <v>1.7179084000000001E-8</v>
       </c>
       <c r="F69" s="2">
         <v>1.7179084000000001E-8</v>
@@ -4567,8 +4567,8 @@
       <c r="C70" s="3">
         <v>22.61</v>
       </c>
-      <c r="D70">
-        <v>3.378673E-9</v>
+      <c r="D70" s="2">
+        <v>1.8836490999999998E-8</v>
       </c>
       <c r="F70" s="2">
         <v>1.8836490999999998E-8</v>
@@ -4590,8 +4590,8 @@
       <c r="C71" s="3">
         <v>22.61</v>
       </c>
-      <c r="D71">
-        <v>3.6222180000000001E-9</v>
+      <c r="D71" s="2">
+        <v>1.9838097E-8</v>
       </c>
       <c r="F71" s="2">
         <v>1.9838097E-8</v>
@@ -4613,8 +4613,8 @@
       <c r="C72" s="3">
         <v>22.61</v>
       </c>
-      <c r="D72">
-        <v>3.8882879999999998E-9</v>
+      <c r="D72" s="2">
+        <v>2.1752040000000001E-8</v>
       </c>
       <c r="F72" s="2">
         <v>2.1752040000000001E-8</v>
@@ -4636,8 +4636,8 @@
       <c r="C73" s="3">
         <v>22.61</v>
       </c>
-      <c r="D73">
-        <v>4.174784E-9</v>
+      <c r="D73" s="2">
+        <v>2.4547089E-8</v>
       </c>
       <c r="F73" s="2">
         <v>2.4547089E-8</v>
@@ -4659,8 +4659,8 @@
       <c r="C74" s="3">
         <v>22.61</v>
       </c>
-      <c r="D74">
-        <v>4.4699039999999997E-9</v>
+      <c r="D74" s="2">
+        <v>2.4126814999999999E-8</v>
       </c>
       <c r="F74" s="2">
         <v>2.4126814999999999E-8</v>
@@ -4682,8 +4682,8 @@
       <c r="C75" s="3">
         <v>22.61</v>
       </c>
-      <c r="D75">
-        <v>4.780341E-9</v>
+      <c r="D75" s="2">
+        <v>2.9006811999999999E-8</v>
       </c>
       <c r="F75" s="2">
         <v>2.9006811999999999E-8</v>
@@ -4706,8 +4706,8 @@
       <c r="C76" s="3">
         <v>22.61</v>
       </c>
-      <c r="D76">
-        <v>5.027638E-9</v>
+      <c r="D76" s="2">
+        <v>2.7384195999999999E-8</v>
       </c>
       <c r="F76" s="2">
         <v>2.7384195999999999E-8</v>
@@ -4730,8 +4730,8 @@
       <c r="C77" s="3">
         <v>22.61</v>
       </c>
-      <c r="D77">
-        <v>5.3696069999999999E-9</v>
+      <c r="D77" s="2">
+        <v>2.9342694999999999E-8</v>
       </c>
       <c r="F77" s="2">
         <v>2.9342694999999999E-8</v>
@@ -4754,8 +4754,8 @@
       <c r="C78" s="3">
         <v>22.61</v>
       </c>
-      <c r="D78">
-        <v>5.731578E-9</v>
+      <c r="D78" s="2">
+        <v>3.0902954000000001E-8</v>
       </c>
       <c r="F78" s="2">
         <v>3.0902954000000001E-8</v>
@@ -4778,8 +4778,8 @@
       <c r="C79" s="3">
         <v>22.61</v>
       </c>
-      <c r="D79">
-        <v>6.1180270000000001E-9</v>
+      <c r="D79" s="2">
+        <v>3.5277679E-8</v>
       </c>
       <c r="F79" s="2">
         <v>3.5277679E-8</v>
@@ -4802,8 +4802,8 @@
       <c r="C80" s="3">
         <v>22.61</v>
       </c>
-      <c r="D80">
-        <v>6.5233330000000002E-9</v>
+      <c r="D80" s="2">
+        <v>3.4474660999999997E-8</v>
       </c>
       <c r="F80" s="2">
         <v>3.4474660999999997E-8</v>
@@ -4826,8 +4826,8 @@
       <c r="C81" s="3">
         <v>22.61</v>
       </c>
-      <c r="D81">
-        <v>6.956414E-9</v>
+      <c r="D81" s="2">
+        <v>3.7153523E-8</v>
       </c>
       <c r="F81" s="2">
         <v>3.7153523E-8</v>
@@ -4850,8 +4850,8 @@
       <c r="C82" s="3">
         <v>22.61</v>
       </c>
-      <c r="D82">
-        <v>7.3003090000000001E-9</v>
+      <c r="D82" s="2">
+        <v>3.9355008E-8</v>
       </c>
       <c r="F82" s="2">
         <v>3.9355008E-8</v>
@@ -4874,8 +4874,8 @@
       <c r="C83" s="3">
         <v>22.61</v>
       </c>
-      <c r="D83">
-        <v>7.7781329999999996E-9</v>
+      <c r="D83" s="2">
+        <v>4.1927600000000002E-8</v>
       </c>
       <c r="F83" s="2">
         <v>4.1927600000000002E-8</v>
@@ -4898,8 +4898,8 @@
       <c r="C84" s="3">
         <v>22.61</v>
       </c>
-      <c r="D84">
-        <v>8.2836530000000002E-9</v>
+      <c r="D84" s="2">
+        <v>4.3401026000000001E-8</v>
       </c>
       <c r="F84" s="2">
         <v>4.3401026000000001E-8</v>
@@ -4922,8 +4922,8 @@
       <c r="C85" s="3">
         <v>22.61</v>
       </c>
-      <c r="D85">
-        <v>8.8330389999999996E-9</v>
+      <c r="D85" s="2">
+        <v>4.7315125999999998E-8</v>
       </c>
       <c r="F85" s="2">
         <v>4.7315125999999998E-8</v>
@@ -4946,8 +4946,8 @@
       <c r="C86" s="3">
         <v>22.61</v>
       </c>
-      <c r="D86">
-        <v>9.4086359999999999E-9</v>
+      <c r="D86" s="2">
+        <v>4.9260634000000003E-8</v>
       </c>
       <c r="F86" s="2">
         <v>4.9260634000000003E-8</v>
@@ -4970,8 +4970,8 @@
       <c r="C87" s="3">
         <v>22.61</v>
       </c>
-      <c r="D87">
-        <v>9.8670680000000001E-9</v>
+      <c r="D87" s="2">
+        <v>5.2783720999999998E-8</v>
       </c>
       <c r="F87" s="2">
         <v>5.2783720999999998E-8</v>
@@ -4994,8 +4994,8 @@
       <c r="C88" s="3">
         <v>22.61</v>
       </c>
-      <c r="D88">
-        <v>1.0501539999999999E-8</v>
+      <c r="D88" s="2">
+        <v>5.8546374E-8</v>
       </c>
       <c r="F88" s="2">
         <v>5.8546374E-8</v>
@@ -5018,8 +5018,8 @@
       <c r="C89" s="3">
         <v>22.61</v>
       </c>
-      <c r="D89">
-        <v>1.1180610000000001E-8</v>
+      <c r="D89" s="2">
+        <v>5.8884365999999997E-8</v>
       </c>
       <c r="F89" s="2">
         <v>5.8884365999999997E-8</v>
@@ -5042,8 +5042,8 @@
       <c r="C90" s="3">
         <v>22.61</v>
       </c>
-      <c r="D90">
-        <v>1.190909E-8</v>
+      <c r="D90" s="2">
+        <v>7.1203280000000002E-8</v>
       </c>
       <c r="F90" s="2">
         <v>7.1203280000000002E-8</v>
@@ -5066,8 +5066,8 @@
       <c r="C91" s="3">
         <v>22.61</v>
       </c>
-      <c r="D91">
-        <v>1.2687060000000001E-8</v>
+      <c r="D91" s="2">
+        <v>6.7608298000000001E-8</v>
       </c>
       <c r="F91" s="2">
         <v>6.7608298000000001E-8</v>
@@ -5090,8 +5090,8 @@
       <c r="C92" s="3">
         <v>22.61</v>
       </c>
-      <c r="D92">
-        <v>1.351228E-8</v>
+      <c r="D92" s="2">
+        <v>7.8976884999999999E-8</v>
       </c>
       <c r="F92" s="2">
         <v>7.8976884999999999E-8</v>
@@ -5114,8 +5114,8 @@
       <c r="C93" s="3">
         <v>22.61</v>
       </c>
-      <c r="D93">
-        <v>1.417123E-8</v>
+      <c r="D93" s="2">
+        <v>7.5422340000000001E-8</v>
       </c>
       <c r="F93" s="2">
         <v>7.5422340000000001E-8</v>
@@ -5138,8 +5138,8 @@
       <c r="C94" s="3">
         <v>22.61</v>
       </c>
-      <c r="D94">
-        <v>1.439493E-8</v>
+      <c r="D94" s="2">
+        <v>8.2224265000000004E-8</v>
       </c>
       <c r="F94" s="2">
         <v>8.2224265000000004E-8</v>
@@ -5162,8 +5162,8 @@
       <c r="C95" s="3">
         <v>22.61</v>
       </c>
-      <c r="D95">
-        <v>2.1954261E-8</v>
+      <c r="D95" s="2">
+        <v>8.5605171000000003E-8</v>
       </c>
       <c r="F95" s="2">
         <v>8.5605171000000003E-8</v>
@@ -5186,8 +5186,8 @@
       <c r="C96" s="3">
         <v>22.61</v>
       </c>
-      <c r="D96">
-        <v>2.2035399E-8</v>
+      <c r="D96" s="2">
+        <v>1.00577306E-7</v>
       </c>
       <c r="F96" s="2">
         <v>1.00577306E-7</v>
@@ -5210,8 +5210,8 @@
       <c r="C97" s="3">
         <v>22.61</v>
       </c>
-      <c r="D97">
-        <v>2.2222579000000001E-8</v>
+      <c r="D97" s="2">
+        <v>9.7162795000000005E-8</v>
       </c>
       <c r="F97" s="2">
         <v>9.7162795000000005E-8</v>
@@ -5234,8 +5234,8 @@
       <c r="C98" s="3">
         <v>22.61</v>
       </c>
-      <c r="D98">
-        <v>2.257463E-8</v>
+      <c r="D98" s="2">
+        <v>1.02329299E-7</v>
       </c>
       <c r="F98" s="2">
         <v>1.02329299E-7</v>
@@ -5258,8 +5258,8 @@
       <c r="C99" s="3">
         <v>22.61</v>
       </c>
-      <c r="D99">
-        <v>2.2941669999999999E-8</v>
+      <c r="D99" s="2">
+        <v>1.16144861E-7</v>
       </c>
       <c r="F99" s="2">
         <v>1.16144861E-7</v>
@@ -5282,8 +5282,8 @@
       <c r="C100" s="3">
         <v>22.61</v>
       </c>
-      <c r="D100">
-        <v>2.3581141E-8</v>
+      <c r="D100" s="2">
+        <v>1.16144861E-7</v>
       </c>
       <c r="F100" s="2">
         <v>1.16144861E-7</v>
@@ -5306,8 +5306,8 @@
       <c r="C101" s="3">
         <v>22.61</v>
       </c>
-      <c r="D101">
-        <v>2.4397171000000002E-8</v>
+      <c r="D101" s="2">
+        <v>1.216186E-7</v>
       </c>
       <c r="F101" s="2">
         <v>1.216186E-7</v>
@@ -5330,8 +5330,8 @@
       <c r="C102" s="3">
         <v>22.61</v>
       </c>
-      <c r="D102">
-        <v>2.5409459E-8</v>
+      <c r="D102" s="2">
+        <v>1.3182567399999999E-7</v>
       </c>
       <c r="F102" s="2">
         <v>1.3182567399999999E-7</v>
@@ -5354,8 +5354,8 @@
       <c r="C103" s="3">
         <v>22.61</v>
       </c>
-      <c r="D103">
-        <v>2.6620030999999999E-8</v>
+      <c r="D103" s="2">
+        <v>1.4125375400000001E-7</v>
       </c>
       <c r="F103" s="2">
         <v>1.4125375400000001E-7</v>
@@ -5378,8 +5378,8 @@
       <c r="C104" s="3">
         <v>22.61</v>
       </c>
-      <c r="D104">
-        <v>2.7681179999999999E-8</v>
+      <c r="D104" s="2">
+        <v>1.4876473699999999E-7</v>
       </c>
       <c r="F104" s="2">
         <v>1.4876473699999999E-7</v>
@@ -5402,8 +5402,8 @@
       <c r="C105" s="3">
         <v>22.61</v>
       </c>
-      <c r="D105">
-        <v>2.9284930000000001E-8</v>
+      <c r="D105" s="2">
+        <v>1.71790839E-7</v>
       </c>
       <c r="F105" s="2">
         <v>1.71790839E-7</v>
@@ -5426,8 +5426,8 @@
       <c r="C106" s="3">
         <v>22.61</v>
       </c>
-      <c r="D106">
-        <v>3.1097218999999997E-8</v>
+      <c r="D106" s="2">
+        <v>1.6500610000000001E-7</v>
       </c>
       <c r="F106" s="2">
         <v>1.6500610000000001E-7</v>
@@ -5450,8 +5450,8 @@
       <c r="C107" s="3">
         <v>22.61</v>
       </c>
-      <c r="D107">
-        <v>3.3104558999999999E-8</v>
+      <c r="D107" s="2">
+        <v>1.75792361E-7</v>
       </c>
       <c r="F107" s="2">
         <v>1.75792361E-7</v>
@@ -5474,8 +5474,8 @@
       <c r="C108" s="3">
         <v>22.61</v>
       </c>
-      <c r="D108">
-        <v>3.5242258999999999E-8</v>
+      <c r="D108" s="2">
+        <v>1.840772E-7</v>
       </c>
       <c r="F108" s="2">
         <v>1.840772E-7</v>
@@ -5498,8 +5498,8 @@
       <c r="C109" s="3">
         <v>22.61</v>
       </c>
-      <c r="D109">
-        <v>3.7514741999999999E-8</v>
+      <c r="D109" s="2">
+        <v>2.0067810899999999E-7</v>
       </c>
       <c r="F109" s="2">
         <v>2.0067810899999999E-7</v>
@@ -5522,8 +5522,8 @@
       <c r="C110" s="3">
         <v>22.61</v>
       </c>
-      <c r="D110">
-        <v>3.9311710999999999E-8</v>
+      <c r="D110" s="2">
+        <v>2.08929613E-7</v>
       </c>
       <c r="F110" s="2">
         <v>2.08929613E-7</v>
@@ -5546,8 +5546,8 @@
       <c r="C111" s="3">
         <v>22.61</v>
       </c>
-      <c r="D111">
-        <v>4.1861500999999998E-8</v>
+      <c r="D111" s="2">
+        <v>2.2003917099999999E-7</v>
       </c>
       <c r="F111" s="2">
         <v>2.2003917099999999E-7</v>
@@ -5570,8 +5570,8 @@
       <c r="C112" s="3">
         <v>22.61</v>
       </c>
-      <c r="D112">
-        <v>4.4550809000000002E-8</v>
+      <c r="D112" s="2">
+        <v>2.5118864300000002E-7</v>
       </c>
       <c r="F112" s="2">
         <v>2.5118864300000002E-7</v>
@@ -5594,8 +5594,8 @@
       <c r="C113" s="3">
         <v>22.61</v>
       </c>
-      <c r="D113">
-        <v>4.7444260000000001E-8</v>
+      <c r="D113" s="2">
+        <v>2.4974683899999999E-7</v>
       </c>
       <c r="F113" s="2">
         <v>2.4974683899999999E-7</v>
@@ -5618,8 +5618,8 @@
       <c r="C114" s="3">
         <v>22.61</v>
       </c>
-      <c r="D114">
-        <v>5.0526658000000003E-8</v>
+      <c r="D114" s="2">
+        <v>2.7070731999999999E-7</v>
       </c>
       <c r="F114" s="2">
         <v>2.7070731999999999E-7</v>
@@ -5642,8 +5642,8 @@
       <c r="C115" s="3">
         <v>22.61</v>
       </c>
-      <c r="D115">
-        <v>5.3787669000000002E-8</v>
+      <c r="D115" s="2">
+        <v>2.8183829299999999E-7</v>
       </c>
       <c r="F115" s="2">
         <v>2.8183829299999999E-7</v>
@@ -5666,8 +5666,8 @@
       <c r="C116" s="3">
         <v>22.61</v>
       </c>
-      <c r="D116">
-        <v>5.6376268999999998E-8</v>
+      <c r="D116" s="2">
+        <v>3.2923045299999999E-7</v>
       </c>
       <c r="F116" s="2">
         <v>3.2923045299999999E-7</v>
@@ -5690,8 +5690,8 @@
       <c r="C117" s="3">
         <v>22.61</v>
       </c>
-      <c r="D117">
-        <v>6.0006960999999993E-8</v>
+      <c r="D117" s="2">
+        <v>3.1988951100000001E-7</v>
       </c>
       <c r="F117" s="2">
         <v>3.1988951100000001E-7</v>
@@ -5714,8 +5714,8 @@
       <c r="C118" s="3">
         <v>22.61</v>
       </c>
-      <c r="D118">
-        <v>6.388521E-8</v>
+      <c r="D118" s="2">
+        <v>3.52776787E-7</v>
       </c>
       <c r="F118" s="2">
         <v>3.52776787E-7</v>
@@ -5738,8 +5738,8 @@
       <c r="C119" s="3">
         <v>22.61</v>
       </c>
-      <c r="D119">
-        <v>6.8028051000000005E-8</v>
+      <c r="D119" s="2">
+        <v>3.6307805499999998E-7</v>
       </c>
       <c r="F119" s="2">
         <v>3.6307805499999998E-7</v>
@@ -5762,8 +5762,8 @@
       <c r="C120" s="3">
         <v>22.61</v>
       </c>
-      <c r="D120">
-        <v>7.2425067000000006E-8</v>
+      <c r="D120" s="2">
+        <v>3.8238425399999999E-7</v>
       </c>
       <c r="F120" s="2">
         <v>3.8238425399999999E-7</v>
@@ -5786,8 +5786,8 @@
       <c r="C121" s="3">
         <v>22.61</v>
       </c>
-      <c r="D121">
-        <v>7.5916503000000001E-8</v>
+      <c r="D121" s="2">
+        <v>4.1927599700000002E-7</v>
       </c>
       <c r="F121" s="2">
         <v>4.1927599700000002E-7</v>
@@ -5810,8 +5810,8 @@
       <c r="C122" s="3">
         <v>22.61</v>
       </c>
-      <c r="D122">
-        <v>8.0804647000000005E-8</v>
+      <c r="D122" s="2">
+        <v>4.3401026400000001E-7</v>
       </c>
       <c r="F122" s="2">
         <v>4.3401026400000001E-7</v>
@@ -5834,8 +5834,8 @@
       <c r="C123" s="3">
         <v>22.61</v>
       </c>
-      <c r="D123">
-        <v>8.6030632E-8</v>
+      <c r="D123" s="2">
+        <v>4.5185594399999998E-7</v>
       </c>
       <c r="F123" s="2">
         <v>4.5185594399999998E-7</v>
@@ -5858,8 +5858,8 @@
       <c r="C124" s="3">
         <v>22.61</v>
       </c>
-      <c r="D124">
-        <v>9.1610466999999998E-8</v>
+      <c r="D124" s="2">
+        <v>4.8977881899999999E-7</v>
       </c>
       <c r="F124" s="2">
         <v>4.8977881899999999E-7</v>
